--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Apptad\AutomationProject\Clone File\AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D102D5E-2565-41B1-9BC8-5C3B1B0AF53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8A313-E0C0-408C-BAE7-8FC5F27C56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3024" windowWidth="17280" windowHeight="9960" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="1548" windowWidth="17280" windowHeight="9960" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <sheet name="ExistingInvalidFrequency" sheetId="19" r:id="rId17"/>
     <sheet name="ExistingInvalidRadius" sheetId="20" r:id="rId18"/>
     <sheet name="SendProposalWithoutBill" sheetId="21" r:id="rId19"/>
-    <sheet name="Applogin" sheetId="22" r:id="rId20"/>
+    <sheet name="ApploginChamp" sheetId="22" r:id="rId20"/>
+    <sheet name="ApploginVendor" sheetId="27" r:id="rId21"/>
+    <sheet name="JobApplicationAccess" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="68">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -233,6 +235,21 @@
   </si>
   <si>
     <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>EnterOTP</t>
+  </si>
+  <si>
+    <t>Workorbit</t>
+  </si>
+  <si>
+    <t>TestingVendor</t>
+  </si>
+  <si>
+    <t>EnterDOB</t>
+  </si>
+  <si>
+    <t>VendorName</t>
   </si>
 </sst>
 </file>
@@ -280,10 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1574,25 +1592,109 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AD8633-F8B4-44B8-A8D9-B5D440705BA2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9875543210</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB71B2F-B5FA-428C-9991-824E29612B3C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3286823698</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1122334455</v>
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Apptad\AutomationProject\Clone File\AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8A313-E0C0-408C-BAE7-8FC5F27C56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD5A95-A261-4B1E-B19F-3DFFCDD8C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5592" yWindow="1548" windowWidth="17280" windowHeight="9960" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="5508" windowWidth="17280" windowHeight="9960" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,8 @@
     <sheet name="SendProposalWithoutBill" sheetId="21" r:id="rId19"/>
     <sheet name="ApploginChamp" sheetId="22" r:id="rId20"/>
     <sheet name="ApploginVendor" sheetId="27" r:id="rId21"/>
-    <sheet name="JobApplicationAccess" sheetId="26" r:id="rId22"/>
+    <sheet name="JobApplicationApproval" sheetId="26" r:id="rId22"/>
+    <sheet name="JobApplicationReject" sheetId="28" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="68">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -1629,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB71B2F-B5FA-428C-9991-824E29612B3C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1680,6 +1681,34 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC7B1A9-FF27-4431-A1BA-C7F69547D0EB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Apptad\AutomationProject\Clone File\AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD5A95-A261-4B1E-B19F-3DFFCDD8C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A83863-3A00-4A96-A93C-146DA1D7CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="5508" windowWidth="17280" windowHeight="9960" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1884" windowWidth="17280" windowHeight="9960" firstSheet="38" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,23 @@
     <sheet name="ApploginVendor" sheetId="27" r:id="rId21"/>
     <sheet name="JobApplicationApproval" sheetId="26" r:id="rId22"/>
     <sheet name="JobApplicationReject" sheetId="28" r:id="rId23"/>
+    <sheet name="createNewClient" sheetId="29" r:id="rId24"/>
+    <sheet name="verify_NameError" sheetId="30" r:id="rId25"/>
+    <sheet name="verify_PhoneError" sheetId="31" r:id="rId26"/>
+    <sheet name="verify_EmailError" sheetId="32" r:id="rId27"/>
+    <sheet name="ViewtaskPage" sheetId="33" r:id="rId28"/>
+    <sheet name="CreateworkorderPage" sheetId="34" r:id="rId29"/>
+    <sheet name="verify_LocationError" sheetId="35" r:id="rId30"/>
+    <sheet name="verify_DateError" sheetId="36" r:id="rId31"/>
+    <sheet name="verify_StarttimeError" sheetId="37" r:id="rId32"/>
+    <sheet name="verify_EndtimeError" sheetId="38" r:id="rId33"/>
+    <sheet name="createProjectForAgencies" sheetId="39" r:id="rId34"/>
+    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId35"/>
+    <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId36"/>
+    <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId37"/>
+    <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId38"/>
+    <sheet name="CreateProjectInvalidFrequency" sheetId="44" r:id="rId39"/>
+    <sheet name="CreateProjectInvalidRadius" sheetId="45" r:id="rId40"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -47,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="102">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -251,6 +268,108 @@
   </si>
   <si>
     <t>VendorName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>expectedSuccessMessage</t>
+  </si>
+  <si>
+    <t>Testing Client55</t>
+  </si>
+  <si>
+    <t>testingclient400@example.com</t>
+  </si>
+  <si>
+    <t>Apptad Noida</t>
+  </si>
+  <si>
+    <t>Enterprise user created successfully!</t>
+  </si>
+  <si>
+    <t>testingclient50@example.com</t>
+  </si>
+  <si>
+    <t>Please enter a valid name</t>
+  </si>
+  <si>
+    <t>Testing 50</t>
+  </si>
+  <si>
+    <t>Please enter a valid mobile number</t>
+  </si>
+  <si>
+    <t>Please enter valid email</t>
+  </si>
+  <si>
+    <t>https://demo.workorbits.com/employment/active/workproof/66cd1b892be40036c1cf933f;date=2024,8,30;for=all;view=table</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>expectedSuccessmessage</t>
+  </si>
+  <si>
+    <t>08/30/2024</t>
+  </si>
+  <si>
+    <t>TESTING(0)</t>
+  </si>
+  <si>
+    <t>Work order added successfully!</t>
+  </si>
+  <si>
+    <t>expectedLocationErrorMessage</t>
+  </si>
+  <si>
+    <t>Choose from dropdown or enter GPS coordinates.</t>
+  </si>
+  <si>
+    <t>expectedDateErrorMessage</t>
+  </si>
+  <si>
+    <t>Please select valid date</t>
+  </si>
+  <si>
+    <t>expectedStarttimeErrorMessage</t>
+  </si>
+  <si>
+    <t>Please select valid start time</t>
+  </si>
+  <si>
+    <t>expectedEndtimeErrorMessage</t>
+  </si>
+  <si>
+    <t>Please select a valid end time</t>
+  </si>
+  <si>
+    <t>Ronaldino</t>
+  </si>
+  <si>
+    <t>ce7@gmail.com</t>
+  </si>
+  <si>
+    <t>Messi10</t>
+  </si>
+  <si>
+    <t>1010@gmail.com</t>
+  </si>
+  <si>
+    <t>NoOneLie</t>
+  </si>
+  <si>
+    <t>tester1212121212@gmail.com</t>
+  </si>
+  <si>
+    <t>rsrx71234</t>
+  </si>
+  <si>
+    <t>rtyehsgd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -260,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +394,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,17 +435,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -590,13 +741,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -632,17 +783,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -653,7 +804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -674,7 +825,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
@@ -699,7 +850,7 @@
     <col min="22" max="22" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -767,7 +918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -852,7 +1003,7 @@
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -874,7 +1025,7 @@
     <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -936,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1014,17 +1165,17 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1042,14 +1193,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -1081,14 +1232,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1117,10 +1268,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1135,7 +1286,7 @@
     <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1214,11 +1365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A2C4D5-B4A5-4C2C-AAEC-ECB370C867DC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1230,9 +1381,10 @@
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1470,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1333,7 +1485,7 @@
     <col min="11" max="11" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1571,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1436,7 +1588,7 @@
     <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1686,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1543,7 +1695,7 @@
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1599,13 +1751,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1613,7 +1765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>9875543210</v>
       </c>
@@ -1634,7 +1786,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1642,7 +1794,7 @@
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1656,7 +1808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>3286823698</v>
       </c>
@@ -1680,20 +1832,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1704,29 +1856,329 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC7B1A9-FF27-4431-A1BA-C7F69547D0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250B3F6-4918-4398-AC3E-A7EFE64E1EFE}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD2750-EED1-428F-8388-205265444F9E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1234509876</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BDE9E910-E388-453C-AFF0-B8205CEC0C7D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8AB26-0B61-4C59-8DDA-093F26B52844}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5">
+        <v>9722288802</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED0FD01D-8005-485E-B0EE-ED55D2B3A554}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503DC47-B116-4D17-AE19-50721CC0959C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8828888221</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E363F-D977-48CD-A149-24DD684993FA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7BB7BEC7-7F1D-4B6A-A3EA-0E5EA8BCCBE9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1BBAAD-6678-4E19-8B13-58152367CADD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1735,11 +2187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE961D46-E6B2-410A-BCF0-B9BC1E0914E2}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1753,7 +2205,7 @@
     <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +2261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1873,30 +2325,1000 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C57AC0-C7C3-475F-B533-0FDB60E6D5B3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C11A08-48AD-4E99-ABB8-719FE09B87FE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832B071D-2BB8-4CF9-AEA5-5BD898CC6F36}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E758CD7-433A-4255-9C68-74245BB828C9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C52D7E-DA4B-4987-81FF-4F055ABBBFD8}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5555456522</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>112233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2">
+        <v>50000</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6EAD9221-B9F7-4BAB-B6CA-D76533E11CA0}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8765234156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A1B9C375-893B-496D-8CB7-A9D2BF4EBF66}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0834A119-F09C-48DA-8867-7EB5777391E7}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8765234156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F81D102B-E469-4B5E-86E7-6F5F3519B13D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39026464-7D8D-41F2-BDDB-85661F9F3AE1}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8765234156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB8A6D92-BFEC-4360-91B0-B5AF4E529121}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAFF7CB-EE50-4142-8865-333ED5F466FF}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6547832546</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>112233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{42B6F9F3-12E3-4B83-9818-8CE5C14DBB5B}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76D7EC-F434-4638-ABDC-C5C74F9D35AE}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6547832546</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>112233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3B6BB931-27D5-44FA-A3D8-B7051903985F}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7133107-D6BF-4563-B891-4F611F5AEE22}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA73E5F2-1FE0-463D-A024-831C739601AA}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4678909876</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>112233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{21146BA0-94DE-4361-93D2-DB02D52D3896}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1909,14 +3331,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +3349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +3370,7 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1963,7 +3385,7 @@
     <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1998,7 +3420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +3469,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -2062,7 +3484,7 @@
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +3513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +3558,7 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -2151,7 +3573,7 @@
     <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +3608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2233,11 +3655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA422E1-DE00-42C1-9882-2867096545DC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
@@ -2252,7 +3674,7 @@
     <col min="11" max="11" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2287,7 +3709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Downloads\AutomationProject\AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA698B0-4C53-4839-BE34-40167AF561F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21588FFF-30AC-484A-8E42-6F66501BE928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>04:30 PM - 12:00 AM</t>
+  </si>
+  <si>
+    <t>04:30 PM - 12:00 PM</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504837D7-CDAC-4452-A50C-6BB5E71C033B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA2F87-8BF3-4A82-96FA-67200541DCE9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21588FFF-30AC-484A-8E42-6F66501BE928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4EAA9-7E24-42E3-AA6F-949E37A60E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -113,12 +113,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>ExpectedMessage</t>
-  </si>
-  <si>
-    <t>Team Member Added Successfully</t>
-  </si>
-  <si>
     <t>ggg2gmail.com</t>
   </si>
   <si>
@@ -183,6 +177,9 @@
   </si>
   <si>
     <t>04:30 PM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>https://demo.workorbits.com/enterprise-admin/team-member</t>
   </si>
 </sst>
 </file>
@@ -578,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922E1C3F-873D-44DC-AD7E-AD749EFE0E82}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,8 +625,8 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +816,10 @@
         <v>2357648901</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504837D7-CDAC-4452-A50C-6BB5E71C033B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1440,45 +1437,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1510,45 +1507,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1584,13 +1581,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1620,15 +1617,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1655,15 +1652,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1693,33 +1690,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>8888888888</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1752,34 +1749,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>8888888888</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Apptad\AutomationProject\Clone File\AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A83863-3A00-4A96-A93C-146DA1D7CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379B335-C428-4729-AE09-19255FFA7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1884" windowWidth="17280" windowHeight="9960" firstSheet="38" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4512" yWindow="1896" windowWidth="17280" windowHeight="9960" firstSheet="47" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,15 @@
     <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId38"/>
     <sheet name="CreateProjectInvalidFrequency" sheetId="44" r:id="rId39"/>
     <sheet name="CreateProjectInvalidRadius" sheetId="45" r:id="rId40"/>
+    <sheet name="ProjectApprovalAgencies" sheetId="46" r:id="rId41"/>
+    <sheet name="ExistingInvalidEnterprise" sheetId="47" r:id="rId42"/>
+    <sheet name="AcceptRejectClients" sheetId="48" r:id="rId43"/>
+    <sheet name="AcceptRejectInvalidEnterprise" sheetId="49" r:id="rId44"/>
+    <sheet name="AcceptRejectInvalidProjectType" sheetId="50" r:id="rId45"/>
+    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="51" r:id="rId46"/>
+    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="52" r:id="rId47"/>
+    <sheet name="AcceptRejectInvalidFrequency" sheetId="53" r:id="rId48"/>
+    <sheet name="AcceptRejectInvalidRadius" sheetId="54" r:id="rId49"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -64,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="119">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -370,6 +379,57 @@
   </si>
   <si>
     <t>rtyehsgd@gmail.com</t>
+  </si>
+  <si>
+    <t>Workorder18</t>
+  </si>
+  <si>
+    <t>Please select enterprise</t>
+  </si>
+  <si>
+    <t>hhhfhf</t>
+  </si>
+  <si>
+    <t>jhhgu@gmail.com</t>
+  </si>
+  <si>
+    <t>ExpectedMessage</t>
+  </si>
+  <si>
+    <t>xdfdse</t>
+  </si>
+  <si>
+    <t>fgd@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfh</t>
+  </si>
+  <si>
+    <t>ghfjdy@gmail.com</t>
+  </si>
+  <si>
+    <t>fgdhf</t>
+  </si>
+  <si>
+    <t>gh@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfj@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfdsdd</t>
+  </si>
+  <si>
+    <t>fgfhd</t>
+  </si>
+  <si>
+    <t>ghfjdd@gmail.com</t>
+  </si>
+  <si>
+    <t>fgrr</t>
+  </si>
+  <si>
+    <t>trtrttt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,7 +439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +473,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -443,12 +508,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1162,7 +1247,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1229,7 +1314,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1365,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A2C4D5-B4A5-4C2C-AAEC-ECB370C867DC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1466,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB31A8E9-B3B8-4C8C-A43C-7CEB8DF65BF3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2143,7 +2228,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2177,7 +2262,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2187,7 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE961D46-E6B2-410A-BCF0-B9BC1E0914E2}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
@@ -3190,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA73E5F2-1FE0-463D-A024-831C739601AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3323,6 +3408,972 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE61F3-0725-4CCD-B968-91BBE06FC3B1}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.6">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="S1:U2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3F25C-C62B-4C6F-A447-8547605FC178}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4652435055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8">
+        <v>112233</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="8">
+        <v>3</v>
+      </c>
+      <c r="M2" s="10">
+        <v>45537</v>
+      </c>
+      <c r="N2" s="10">
+        <v>45545</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>50</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="8">
+        <v>50000</v>
+      </c>
+      <c r="U2" s="8">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8">
+        <v>5</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="10">
+        <v>45534</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A6ABDDF0-7DD7-4FD5-A9C5-8F41DAD9B480}"/>
+    <hyperlink ref="J2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAC0FF-286F-46B7-BBAA-D4CA6606D8D6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4634324055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D1EC939F-C10E-414F-A341-9D818029A1B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74E19EC-BAD7-45A6-BDC7-BE2822865102}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4621224055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{61FB811C-853F-4787-BD98-EF1AAE77AEE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48AFEB9-544F-406E-A022-9A237CD1A13E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4324524055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C02C9DBB-9C7D-41E5-92E0-828B02B7037C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345C9F5-DEB8-45C8-85C9-47F87B6DE846}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4324324055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C953E137-0726-48F1-AEAA-5E4657B221BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CF0F0-FF27-4B98-AE80-708D2DD33310}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="8">
+        <v>6666324055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>112233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{53208226-6C68-46B8-9FB3-69E02E8F0362}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{D03589B2-77BF-4B5D-9D6B-7D1A73FBAA41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8DCD-81DD-4A5C-B647-C520CEAD1ACF}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="8">
+        <v>6709824055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>112233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6981B4B-51F5-4874-8292-BA0AF9543D51}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{CDBD26A4-F9D5-4C16-AEA8-92B9AEEDCE56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3898C06-4442-4974-B7E8-CA497002BB2B}">
   <dimension ref="A1:C2"/>
@@ -3366,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D85BB9-DBD4-4F32-9778-B829107BA15C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3449,7 +4500,7 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876CF615-3D89-4105-B43F-D20DC2E1A68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDF3C68-3838-4265-925F-63351B467494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Withdraw_Invalid_Name" sheetId="30" r:id="rId24"/>
     <sheet name="Withdraw_Short_Name" sheetId="31" r:id="rId25"/>
     <sheet name="RequestCredit" sheetId="33" r:id="rId26"/>
+    <sheet name="TaskCredit" sheetId="34" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="66">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -200,12 +201,63 @@
   </si>
   <si>
     <t>CreditAmount</t>
+  </si>
+  <si>
+    <t>expectedConfirmAmount</t>
+  </si>
+  <si>
+    <t>expectedPaymentStatus</t>
+  </si>
+  <si>
+    <t>expectedCreditStatus</t>
+  </si>
+  <si>
+    <t>expectedCreditType</t>
+  </si>
+  <si>
+    <t>Unpaid</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Amount will receive to your bank account soon…</t>
+  </si>
+  <si>
+    <t>Invalid VPA. Please enter a valid Virtual Payment Address</t>
+  </si>
+  <si>
+    <t>Please enter valid account number</t>
+  </si>
+  <si>
+    <t>Invalid IFSC Code in Bank Account</t>
+  </si>
+  <si>
+    <t>The ifsc must be 11 characters.</t>
+  </si>
+  <si>
+    <t>Please enter valid account holder name</t>
+  </si>
+  <si>
+    <t>The name must be between 3 and 120 characters.</t>
+  </si>
+  <si>
+    <t>Amount will receive to your bank account soon. . .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,10 +308,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,10 +835,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D10E0-4481-4EF3-8BAD-5AD6EADFA26A}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:XFD1048576"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,9 +847,13 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -815,8 +872,20 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -834,6 +903,18 @@
       </c>
       <c r="F2">
         <v>123456</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +928,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38D1885-FF36-4CE0-9730-9534EAF02835}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M12" activeCellId="1" sqref="J18 M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,9 +944,13 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="47.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -893,8 +978,20 @@
       <c r="I1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -921,6 +1018,18 @@
       </c>
       <c r="I2">
         <v>123456</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0207F3-3648-4B2F-87B0-F1F1EFAE37D6}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,9 +1056,10 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -965,8 +1075,11 @@
       <c r="E1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -981,6 +1094,9 @@
       </c>
       <c r="E2" t="s">
         <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1059,10 +1175,99 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD465F8-8ADD-4DD5-8207-7DD7D91A0BEC}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8CFB2D82-B741-4596-A2F0-544418ADA639}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{AF597898-62C8-4CB2-AD1B-6DA9DB4E1183}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{2D0386AE-2ADD-4969-8EDC-F41E7A36BF05}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{0893DE4D-3334-41B9-B7F3-DD421B657EE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F49695-C608-495A-9A3F-104B112DA8D3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>41</v>
@@ -1131,21 +1336,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8CFB2D82-B741-4596-A2F0-544418ADA639}"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{AF597898-62C8-4CB2-AD1B-6DA9DB4E1183}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{2D0386AE-2ADD-4969-8EDC-F41E7A36BF05}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{0893DE4D-3334-41B9-B7F3-DD421B657EE6}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D39E55EC-311A-42D1-AFED-45606B7CE471}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{7E078786-4E75-473B-AAD6-088669B53E07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F49695-C608-495A-9A3F-104B112DA8D3}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957984E-7AB4-43A3-AB84-00D64A6741AE}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,10 +1360,10 @@
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1185,8 +1388,11 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1196,14 +1402,14 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
+      <c r="D2" s="1">
+        <v>111111</v>
+      </c>
+      <c r="E2">
+        <v>111111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>43</v>
@@ -1211,22 +1417,25 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D39E55EC-311A-42D1-AFED-45606B7CE471}"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{7E078786-4E75-473B-AAD6-088669B53E07}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{195EF49D-1968-48DA-AA9D-0DA80CD7FC6F}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{33716F2C-13E7-459F-9633-296CC4618974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957984E-7AB4-43A3-AB84-00D64A6741AE}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BD5CCB-EBB4-4F8B-8CC6-C722CE447543}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,10 +1447,10 @@
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1266,8 +1475,11 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1283,8 +1495,8 @@
       <c r="E2">
         <v>111111</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>43</v>
@@ -1292,22 +1504,25 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{195EF49D-1968-48DA-AA9D-0DA80CD7FC6F}"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{33716F2C-13E7-459F-9633-296CC4618974}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4F4D7BDE-811A-4FEC-81D2-5FBC8762E965}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{752A49CA-F3C8-42DC-A292-DB90BD64AFC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BD5CCB-EBB4-4F8B-8CC6-C722CE447543}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E09231-894F-4013-958B-2394E3F65C3E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,10 +1534,10 @@
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1347,8 +1562,11 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1364,31 +1582,34 @@
       <c r="E2">
         <v>111111</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4F4D7BDE-811A-4FEC-81D2-5FBC8762E965}"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{752A49CA-F3C8-42DC-A292-DB90BD64AFC7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{97BE2A59-A523-4CA0-B380-B8B362DD31CB}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{6CA3BFDC-CF63-4825-AB69-988CFABAF5C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E09231-894F-4013-958B-2394E3F65C3E}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:XFD1048576"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC381A8-2269-464B-9A08-7730A794A532}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,10 +1621,10 @@
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1428,8 +1649,11 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1448,92 +1672,14 @@
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{97BE2A59-A523-4CA0-B380-B8B362DD31CB}"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{6CA3BFDC-CF63-4825-AB69-988CFABAF5C8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC381A8-2269-464B-9A08-7730A794A532}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>111111</v>
-      </c>
-      <c r="E2">
-        <v>111111</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
+      <c r="I2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E002A3-5062-4DD2-99EA-9D8EE82F45C2}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,9 +1705,13 @@
     <col min="1" max="1" width="30.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1571,8 +1721,20 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1581,6 +1743,18 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1591,6 +1765,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2C054-F8FC-44A2-9B7D-23EF641C826F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7EF7775D-36F3-4101-B366-883FC95E417D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E17EA0-40BB-4099-BC1E-0BCC44B00F49}">
   <dimension ref="A1:C2"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4EAA9-7E24-42E3-AA6F-949E37A60E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD8318-8776-4BB7-AA41-D9A4279A03D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="43">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -158,9 +158,6 @@
     <t>expectedMessage</t>
   </si>
   <si>
-    <t>12:45 PM - 01:45 PM</t>
-  </si>
-  <si>
     <t>UPIID</t>
   </si>
   <si>
@@ -176,10 +173,10 @@
     <t>04:30 PM - 12:00 AM</t>
   </si>
   <si>
-    <t>04:30 PM - 12:00 PM</t>
-  </si>
-  <si>
     <t>https://demo.workorbits.com/enterprise-admin/team-member</t>
+  </si>
+  <si>
+    <t>03:30 PM - 04:30 PM</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922E1C3F-873D-44DC-AD7E-AD749EFE0E82}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +623,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1060,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,6 +1304,7 @@
     <hyperlink ref="C2" r:id="rId2" xr:uid="{84A78D77-1377-4B69-9CCF-0327551FB0CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1350,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA2F87-8BF3-4A82-96FA-67200541DCE9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1556,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,10 +1694,10 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,10 +1711,10 @@
         <v>8888888888</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1755,10 +1753,10 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,10 +1770,10 @@
         <v>8888888888</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD8318-8776-4BB7-AA41-D9A4279A03D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC4CF8-B6B9-49A3-8E5E-4B1535FC423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>https://demo.workorbits.com/enterprise-admin/team-member</t>
   </si>
   <si>
-    <t>03:30 PM - 04:30 PM</t>
+    <t>test@agency.com</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1295,16 +1295,15 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BE0D756C-7FBC-406E-8BDF-A5615B1B2CF9}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{84A78D77-1377-4B69-9CCF-0327551FB0CF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{84A78D77-1377-4B69-9CCF-0327551FB0CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1313,7 +1312,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1338,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1353,8 +1352,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D8110CA2-9CE9-4B49-82CE-428D4DCCD6FE}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{0DF61C01-6170-4F45-8D2D-52F3B3864A1C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0DF61C01-6170-4F45-8D2D-52F3B3864A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1365,7 +1363,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1390,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1401,13 +1399,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A7DCC2DC-A9C5-4628-9199-C4AB5D357181}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{E282A9B4-4BEA-46BD-897C-136FFB797A20}"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E282A9B4-4BEA-46BD-897C-136FFB797A20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC4CF8-B6B9-49A3-8E5E-4B1535FC423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CE85C-DAAF-449E-9A17-9276131A893A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF17AAD-B652-4A7C-B63A-646EC2907C47}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1048,8 +1048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A2B6019D-BA5E-4A4F-AE82-104B18659561}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5498F432-7864-4CA3-BC05-25C384618772}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5498F432-7864-4CA3-BC05-25C384618772}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1060,7 +1059,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1081,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1093,8 +1092,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{616BA48D-A82C-405E-9923-0023C6987C29}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{6A8EEF88-61E7-430E-90CF-B1DD20FA50D5}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6A8EEF88-61E7-430E-90CF-B1DD20FA50D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1170,7 +1168,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1190,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1203,8 +1201,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{797FBE5B-D4B1-40E9-8CA0-5BF4A9116853}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{58EB422B-0276-403C-ACD7-54E041194FB3}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{58EB422B-0276-403C-ACD7-54E041194FB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1215,7 +1212,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1248,8 +1245,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7DC403BD-7AD8-41C8-B02A-C69A9A5DC9FF}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D13446C8-31C7-4FCA-BE8A-EB87542A5EA5}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D13446C8-31C7-4FCA-BE8A-EB87542A5EA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1362,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA2F87-8BF3-4A82-96FA-67200541DCE9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CE85C-DAAF-449E-9A17-9276131A893A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3378D1C-C47F-49B4-B42D-D6279787FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -628,8 +628,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4E0DDA03-AE29-4273-87DB-ABEDD62A632D}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{D929EB1F-9554-4BD1-976E-B2E83D8CB5F1}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D929EB1F-9554-4BD1-976E-B2E83D8CB5F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -640,11 +639,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -692,8 +692,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{31BAF3A4-747A-4F59-88D3-EDA1920D570C}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{BCA1CD07-FA78-4E20-8498-0008D817C446}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BCA1CD07-FA78-4E20-8498-0008D817C446}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -704,11 +703,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
@@ -736,7 +736,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -756,8 +756,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E21F6C67-78F9-418C-8656-9EA3DD5BC66C}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{5615B997-B848-43DC-BD60-89133B433647}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5615B997-B848-43DC-BD60-89133B433647}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -768,11 +767,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -821,8 +821,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B80E0C2D-CC70-4F2C-850F-A512E9E069B7}"/>
-    <hyperlink ref="E2" r:id="rId2" display="ggg2@gmail.com" xr:uid="{9357C069-3478-485B-98B7-552479C0D8A8}"/>
+    <hyperlink ref="E2" r:id="rId1" display="ggg2@gmail.com" xr:uid="{9357C069-3478-485B-98B7-552479C0D8A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -832,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C77C381-2B30-4D71-9E07-FCC1ACFAA2CD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +855,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -868,8 +867,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{76C32E61-3000-4110-BE84-9A370870F99A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D9F069D1-EFA8-4632-9182-D208E63E559A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D9F069D1-EFA8-4632-9182-D208E63E559A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -880,7 +878,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +900,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -913,8 +911,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C2D5CB93-7A85-4BBA-8DFC-00190669B88A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{FB743AEF-49EC-4CAA-A1F9-2837DCE5DC8D}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FB743AEF-49EC-4CAA-A1F9-2837DCE5DC8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,7 +922,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +944,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -958,8 +955,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EF1727F8-2C60-4795-913F-1E1E9F2ED243}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{79E67732-73EA-4229-97FE-D622B11F9735}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{79E67732-73EA-4229-97FE-D622B11F9735}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -970,7 +966,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +988,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1003,8 +999,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3A605641-7752-4FAF-8CD5-EB5307280CAB}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{6201E414-CFFD-4B46-BB7E-AE63C6B8E0E3}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6201E414-CFFD-4B46-BB7E-AE63C6B8E0E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1014,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF17AAD-B652-4A7C-B63A-646EC2907C47}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379B335-C428-4729-AE09-19255FFA7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBA8F5-3197-4916-9036-71C900F0E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="1896" windowWidth="17280" windowHeight="9960" firstSheet="47" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="3000" windowWidth="17280" windowHeight="9960" firstSheet="49" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,8 @@
     <sheet name="AcceptRejectInvalidProjectDesc" sheetId="52" r:id="rId47"/>
     <sheet name="AcceptRejectInvalidFrequency" sheetId="53" r:id="rId48"/>
     <sheet name="AcceptRejectInvalidRadius" sheetId="54" r:id="rId49"/>
+    <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId50"/>
+    <sheet name="LoginEnterprise" sheetId="57" r:id="rId51"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="121">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -87,349 +89,355 @@
     <t>https://demo.workorbits.com/dashboard/ongoing</t>
   </si>
   <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>companyGSTNumber</t>
+  </si>
+  <si>
+    <t>companyAddress</t>
+  </si>
+  <si>
+    <t>TestCompany</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>xyz2@demo.com</t>
+  </si>
+  <si>
+    <t>GST12345</t>
+  </si>
+  <si>
+    <t>ProjectTitle</t>
+  </si>
+  <si>
+    <t>ProjectDescription</t>
+  </si>
+  <si>
+    <t>ProjectCode</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>EnterFrequency</t>
+  </si>
+  <si>
+    <t>EnterRadius</t>
+  </si>
+  <si>
+    <t>EnterItem</t>
+  </si>
+  <si>
+    <t>EnterDescription</t>
+  </si>
+  <si>
+    <t>EnterRates</t>
+  </si>
+  <si>
+    <t>EnterQty</t>
+  </si>
+  <si>
+    <t>EnterDays</t>
+  </si>
+  <si>
+    <t>Testing123</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>CarDescription</t>
+  </si>
+  <si>
+    <t>LinkTitle</t>
+  </si>
+  <si>
+    <t>LinkURL</t>
+  </si>
+  <si>
+    <t>EnterMetrics</t>
+  </si>
+  <si>
+    <t>EnterQuantity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/</t>
+  </si>
+  <si>
+    <t>Order1</t>
+  </si>
+  <si>
+    <t>Hello123</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>Project Created Succsessfully!</t>
+  </si>
+  <si>
+    <t>Title1234</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Please select project type</t>
+  </si>
+  <si>
+    <t>Please enter project description</t>
+  </si>
+  <si>
+    <t>Please select a valid type</t>
+  </si>
+  <si>
+    <t>Please enter time to track location</t>
+  </si>
+  <si>
+    <t>Please enter radius to track location</t>
+  </si>
+  <si>
+    <t>Please enter project title</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>buliding number 123</t>
+  </si>
+  <si>
+    <t>CustomFieldName</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>PaymentTerms</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>TermsAndConditions</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>07@gmail.com</t>
+  </si>
+  <si>
+    <t>Please enter a valid field name</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>EnterOTP</t>
+  </si>
+  <si>
+    <t>Workorbit</t>
+  </si>
+  <si>
+    <t>TestingVendor</t>
+  </si>
+  <si>
+    <t>EnterDOB</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>expectedSuccessMessage</t>
+  </si>
+  <si>
+    <t>Testing Client55</t>
+  </si>
+  <si>
+    <t>testingclient400@example.com</t>
+  </si>
+  <si>
+    <t>Apptad Noida</t>
+  </si>
+  <si>
+    <t>Enterprise user created successfully!</t>
+  </si>
+  <si>
+    <t>testingclient50@example.com</t>
+  </si>
+  <si>
+    <t>Please enter a valid name</t>
+  </si>
+  <si>
+    <t>Testing 50</t>
+  </si>
+  <si>
+    <t>Please enter a valid mobile number</t>
+  </si>
+  <si>
+    <t>Please enter valid email</t>
+  </si>
+  <si>
+    <t>https://demo.workorbits.com/employment/active/workproof/66cd1b892be40036c1cf933f;date=2024,8,30;for=all;view=table</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>expectedSuccessmessage</t>
+  </si>
+  <si>
+    <t>08/30/2024</t>
+  </si>
+  <si>
+    <t>TESTING(0)</t>
+  </si>
+  <si>
+    <t>Work order added successfully!</t>
+  </si>
+  <si>
+    <t>expectedLocationErrorMessage</t>
+  </si>
+  <si>
+    <t>Choose from dropdown or enter GPS coordinates.</t>
+  </si>
+  <si>
+    <t>expectedDateErrorMessage</t>
+  </si>
+  <si>
+    <t>Please select valid date</t>
+  </si>
+  <si>
+    <t>expectedStarttimeErrorMessage</t>
+  </si>
+  <si>
+    <t>Please select valid start time</t>
+  </si>
+  <si>
+    <t>expectedEndtimeErrorMessage</t>
+  </si>
+  <si>
+    <t>Please select a valid end time</t>
+  </si>
+  <si>
+    <t>Ronaldino</t>
+  </si>
+  <si>
+    <t>ce7@gmail.com</t>
+  </si>
+  <si>
+    <t>Messi10</t>
+  </si>
+  <si>
+    <t>1010@gmail.com</t>
+  </si>
+  <si>
+    <t>NoOneLie</t>
+  </si>
+  <si>
+    <t>tester1212121212@gmail.com</t>
+  </si>
+  <si>
+    <t>rsrx71234</t>
+  </si>
+  <si>
+    <t>rtyehsgd@gmail.com</t>
+  </si>
+  <si>
+    <t>Workorder18</t>
+  </si>
+  <si>
+    <t>Please select enterprise</t>
+  </si>
+  <si>
+    <t>hhhfhf</t>
+  </si>
+  <si>
+    <t>jhhgu@gmail.com</t>
+  </si>
+  <si>
+    <t>ExpectedMessage</t>
+  </si>
+  <si>
+    <t>xdfdse</t>
+  </si>
+  <si>
+    <t>fgd@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfh</t>
+  </si>
+  <si>
+    <t>ghfjdy@gmail.com</t>
+  </si>
+  <si>
+    <t>fgdhf</t>
+  </si>
+  <si>
+    <t>gh@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfj@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfdsdd</t>
+  </si>
+  <si>
+    <t>fgfhd</t>
+  </si>
+  <si>
+    <t>ghfjdd@gmail.com</t>
+  </si>
+  <si>
+    <t>fgrr</t>
+  </si>
+  <si>
+    <t>trtrttt@gmail.com</t>
+  </si>
+  <si>
+    <t>test@agency.com</t>
+  </si>
+  <si>
+    <t>fgdgfjd</t>
+  </si>
+  <si>
     <t>ankur@gmail.com</t>
-  </si>
-  <si>
-    <t>mobileNumber</t>
-  </si>
-  <si>
-    <t>companyName</t>
-  </si>
-  <si>
-    <t>companyGSTNumber</t>
-  </si>
-  <si>
-    <t>companyAddress</t>
-  </si>
-  <si>
-    <t>TestCompany</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>xyz2@demo.com</t>
-  </si>
-  <si>
-    <t>GST12345</t>
-  </si>
-  <si>
-    <t>ProjectTitle</t>
-  </si>
-  <si>
-    <t>ProjectDescription</t>
-  </si>
-  <si>
-    <t>ProjectCode</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>EnterFrequency</t>
-  </si>
-  <si>
-    <t>EnterRadius</t>
-  </si>
-  <si>
-    <t>EnterItem</t>
-  </si>
-  <si>
-    <t>EnterDescription</t>
-  </si>
-  <si>
-    <t>EnterRates</t>
-  </si>
-  <si>
-    <t>EnterQty</t>
-  </si>
-  <si>
-    <t>EnterDays</t>
-  </si>
-  <si>
-    <t>Testing123</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>CarDescription</t>
-  </si>
-  <si>
-    <t>LinkTitle</t>
-  </si>
-  <si>
-    <t>LinkURL</t>
-  </si>
-  <si>
-    <t>EnterMetrics</t>
-  </si>
-  <si>
-    <t>EnterQuantity</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/</t>
-  </si>
-  <si>
-    <t>Order1</t>
-  </si>
-  <si>
-    <t>Hello123</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>Project Created Succsessfully!</t>
-  </si>
-  <si>
-    <t>Title1234</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>Please select project type</t>
-  </si>
-  <si>
-    <t>Please enter project description</t>
-  </si>
-  <si>
-    <t>Please select a valid type</t>
-  </si>
-  <si>
-    <t>Please enter time to track location</t>
-  </si>
-  <si>
-    <t>Please enter radius to track location</t>
-  </si>
-  <si>
-    <t>Please enter project title</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>buliding number 123</t>
-  </si>
-  <si>
-    <t>CustomFieldName</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>PaymentTerms</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>TermsAndConditions</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>07@gmail.com</t>
-  </si>
-  <si>
-    <t>Please enter a valid field name</t>
-  </si>
-  <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>EnterOTP</t>
-  </si>
-  <si>
-    <t>Workorbit</t>
-  </si>
-  <si>
-    <t>TestingVendor</t>
-  </si>
-  <si>
-    <t>EnterDOB</t>
-  </si>
-  <si>
-    <t>VendorName</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>expectedSuccessMessage</t>
-  </si>
-  <si>
-    <t>Testing Client55</t>
-  </si>
-  <si>
-    <t>testingclient400@example.com</t>
-  </si>
-  <si>
-    <t>Apptad Noida</t>
-  </si>
-  <si>
-    <t>Enterprise user created successfully!</t>
-  </si>
-  <si>
-    <t>testingclient50@example.com</t>
-  </si>
-  <si>
-    <t>Please enter a valid name</t>
-  </si>
-  <si>
-    <t>Testing 50</t>
-  </si>
-  <si>
-    <t>Please enter a valid mobile number</t>
-  </si>
-  <si>
-    <t>Please enter valid email</t>
-  </si>
-  <si>
-    <t>https://demo.workorbits.com/employment/active/workproof/66cd1b892be40036c1cf933f;date=2024,8,30;for=all;view=table</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>expectedSuccessmessage</t>
-  </si>
-  <si>
-    <t>08/30/2024</t>
-  </si>
-  <si>
-    <t>TESTING(0)</t>
-  </si>
-  <si>
-    <t>Work order added successfully!</t>
-  </si>
-  <si>
-    <t>expectedLocationErrorMessage</t>
-  </si>
-  <si>
-    <t>Choose from dropdown or enter GPS coordinates.</t>
-  </si>
-  <si>
-    <t>expectedDateErrorMessage</t>
-  </si>
-  <si>
-    <t>Please select valid date</t>
-  </si>
-  <si>
-    <t>expectedStarttimeErrorMessage</t>
-  </si>
-  <si>
-    <t>Please select valid start time</t>
-  </si>
-  <si>
-    <t>expectedEndtimeErrorMessage</t>
-  </si>
-  <si>
-    <t>Please select a valid end time</t>
-  </si>
-  <si>
-    <t>Ronaldino</t>
-  </si>
-  <si>
-    <t>ce7@gmail.com</t>
-  </si>
-  <si>
-    <t>Messi10</t>
-  </si>
-  <si>
-    <t>1010@gmail.com</t>
-  </si>
-  <si>
-    <t>NoOneLie</t>
-  </si>
-  <si>
-    <t>tester1212121212@gmail.com</t>
-  </si>
-  <si>
-    <t>rsrx71234</t>
-  </si>
-  <si>
-    <t>rtyehsgd@gmail.com</t>
-  </si>
-  <si>
-    <t>Workorder18</t>
-  </si>
-  <si>
-    <t>Please select enterprise</t>
-  </si>
-  <si>
-    <t>hhhfhf</t>
-  </si>
-  <si>
-    <t>jhhgu@gmail.com</t>
-  </si>
-  <si>
-    <t>ExpectedMessage</t>
-  </si>
-  <si>
-    <t>xdfdse</t>
-  </si>
-  <si>
-    <t>fgd@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfh</t>
-  </si>
-  <si>
-    <t>ghfjdy@gmail.com</t>
-  </si>
-  <si>
-    <t>fgdhf</t>
-  </si>
-  <si>
-    <t>gh@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfj@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfdsdd</t>
-  </si>
-  <si>
-    <t>fgfhd</t>
-  </si>
-  <si>
-    <t>ghfjdd@gmail.com</t>
-  </si>
-  <si>
-    <t>fgrr</t>
-  </si>
-  <si>
-    <t>trtrttt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -823,7 +831,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -845,7 +853,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -880,21 +888,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -937,108 +945,108 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1234326784</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
       <c r="G2">
         <v>112233</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -1047,10 +1055,10 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
       </c>
       <c r="Q2">
         <v>50000</v>
@@ -1062,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1112,96 +1120,96 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1210,10 +1218,10 @@
         <v>50</v>
       </c>
       <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
       <c r="O2">
         <v>50000</v>
@@ -1225,13 +1233,13 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1257,12 +1265,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1287,21 +1295,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1326,21 +1334,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1373,57 +1381,57 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1435,7 +1443,7 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1471,72 +1479,72 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
       </c>
       <c r="J2">
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1572,72 +1580,72 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1675,63 +1683,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1743,7 +1751,7 @@
         <v>45545</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1752,7 +1760,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB981E43-EC92-4082-87A8-F886F963D720}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1788,21 +1796,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1811,13 +1819,13 @@
         <v>1234567893</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1844,10 +1852,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1881,16 +1889,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1901,7 +1909,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3">
         <v>36972</v>
@@ -1927,12 +1935,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1952,12 +1960,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1984,36 +1992,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5">
         <v>1234509876</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2043,19 +2051,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999">
@@ -2064,13 +2072,13 @@
         <v>9722288802</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2100,34 +2108,34 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2157,34 +2165,34 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5">
         <v>8828888221</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2220,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2240,24 +2248,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2281,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2292,78 +2300,78 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2375,7 +2383,7 @@
         <v>45545</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -2384,10 +2392,10 @@
         <v>50</v>
       </c>
       <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
       <c r="O2">
         <v>50000</v>
@@ -2399,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2427,24 +2435,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2469,21 +2477,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2508,21 +2516,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2546,21 +2554,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2605,108 +2613,108 @@
   <sheetData>
     <row r="1" spans="1:23" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
-        <v>23</v>
-      </c>
       <c r="W1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5">
         <v>5555456522</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>112233</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -2718,7 +2726,7 @@
         <v>45545</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -2727,10 +2735,10 @@
         <v>50</v>
       </c>
       <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
         <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
       </c>
       <c r="T2">
         <v>50000</v>
@@ -2742,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2774,42 +2782,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5">
         <v>8765234156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2842,51 +2850,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5">
         <v>8765234156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2919,51 +2927,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5">
         <v>8765234156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3004,87 +3012,87 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5">
         <v>6547832546</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>112233</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -3096,7 +3104,7 @@
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3136,102 +3144,102 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5">
         <v>6547832546</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>112233</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
         <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
       </c>
       <c r="O2">
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3258,12 +3266,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3301,102 +3309,102 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5">
         <v>4678909876</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>112233</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3443,87 +3451,87 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.399999999999999">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" t="s">
         <v>81</v>
-      </c>
-      <c r="U1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3535,7 +3543,7 @@
         <v>45545</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -3544,10 +3552,10 @@
         <v>50</v>
       </c>
       <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
       <c r="O2">
         <v>50000</v>
@@ -3559,16 +3567,16 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3597,12 +3605,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3650,117 +3658,117 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="W1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8">
         <v>4652435055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="8">
         <v>112233</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="L2" s="8">
         <v>3</v>
@@ -3772,7 +3780,7 @@
         <v>45545</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="8">
         <v>10</v>
@@ -3781,10 +3789,10 @@
         <v>50</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="T2" s="8">
         <v>50000</v>
@@ -3796,16 +3804,16 @@
         <v>5</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X2" s="10">
         <v>45534</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3830,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3837,42 +3845,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8">
         <v>4634324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3904,42 +3912,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8">
         <v>4621224055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3972,51 +3980,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8">
         <v>4324524055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4049,51 +4057,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8">
         <v>4324324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4134,102 +4142,102 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="8">
         <v>6666324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>112233</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
         <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
       </c>
       <c r="O2">
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4245,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8DCD-81DD-4A5C-B647-C520CEAD1ACF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4267,102 +4275,102 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="8">
         <v>6709824055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>112233</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2">
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4391,24 +4399,128 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4630987055</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2988EF84-86B6-4AD8-8A30-5886BFD5135F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B168306-E92A-46FA-9930-4BF54AE7CCAF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BA607E3B-20F4-4174-864E-83C960003DC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4438,57 +4550,57 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4500,7 +4612,7 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4537,60 +4649,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4626,72 +4738,72 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
       </c>
       <c r="J2">
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4727,72 +4839,72 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>112233</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,35 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3378D1C-C47F-49B4-B42D-D6279787FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F5C6C-915D-4254-AA97-2519EB39496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="signUp" sheetId="2" r:id="rId2"/>
-    <sheet name="enterprise" sheetId="12" r:id="rId3"/>
-    <sheet name="enterprise1" sheetId="14" r:id="rId4"/>
-    <sheet name="enterprise2" sheetId="15" r:id="rId5"/>
-    <sheet name="enterprise3" sheetId="16" r:id="rId6"/>
-    <sheet name="enterprise4" sheetId="17" r:id="rId7"/>
-    <sheet name="enterprise5" sheetId="18" r:id="rId8"/>
-    <sheet name="enterprise6" sheetId="19" r:id="rId9"/>
-    <sheet name="teamMember" sheetId="4" r:id="rId10"/>
+    <sheet name="verify_Req_cash_credit" sheetId="12" r:id="rId3"/>
+    <sheet name="verify_Req_Task_credit" sheetId="14" r:id="rId4"/>
+    <sheet name="verify_view_statement" sheetId="15" r:id="rId5"/>
+    <sheet name="verify_Export_credits_page" sheetId="16" r:id="rId6"/>
+    <sheet name="verify_Export_credits_payout" sheetId="17" r:id="rId7"/>
+    <sheet name="verify_paying_cash_credit" sheetId="18" r:id="rId8"/>
+    <sheet name="verify_paying_Task_credit" sheetId="19" r:id="rId9"/>
+    <sheet name="validation_for_valid_Details" sheetId="4" r:id="rId10"/>
     <sheet name="validation_for_invalid_Name" sheetId="5" r:id="rId11"/>
     <sheet name="validation_for_invalid_Mobile" sheetId="6" r:id="rId12"/>
     <sheet name="validation_for_invalid_Email" sheetId="7" r:id="rId13"/>
-    <sheet name="proofofwork" sheetId="8" r:id="rId14"/>
-    <sheet name="proofofwork1" sheetId="9" r:id="rId15"/>
-    <sheet name="proofofwork2" sheetId="10" r:id="rId16"/>
-    <sheet name="proofofwork3" sheetId="20" r:id="rId17"/>
-    <sheet name="managedownload" sheetId="22" r:id="rId18"/>
-    <sheet name="managedownload1" sheetId="23" r:id="rId19"/>
-    <sheet name="managedownload2" sheetId="24" r:id="rId20"/>
-    <sheet name="managedownload3" sheetId="25" r:id="rId21"/>
-    <sheet name="manageattendance" sheetId="26" r:id="rId22"/>
-    <sheet name="manageattendance1" sheetId="27" r:id="rId23"/>
-    <sheet name="manageattendance2" sheetId="28" r:id="rId24"/>
+    <sheet name="verify_proofofwork_Dashboard" sheetId="8" r:id="rId14"/>
+    <sheet name="verify_proofofwork_Project" sheetId="9" r:id="rId15"/>
+    <sheet name="verify_proofofwork_JobApp" sheetId="10" r:id="rId16"/>
+    <sheet name="verify_proofofwork_ViewTask" sheetId="20" r:id="rId17"/>
+    <sheet name="verify_Download_Dashboard" sheetId="22" r:id="rId18"/>
+    <sheet name="verify_Download_ViewTask" sheetId="23" r:id="rId19"/>
+    <sheet name="verify_Download_Workorder" sheetId="24" r:id="rId20"/>
+    <sheet name="verify_Download_XLS" sheetId="25" r:id="rId21"/>
+    <sheet name="verify_Attendance_Workorder" sheetId="26" r:id="rId22"/>
+    <sheet name="verify_Attendance_ViewTask" sheetId="27" r:id="rId23"/>
+    <sheet name="verify_Attendance_Active" sheetId="28" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -170,13 +170,13 @@
     <t>Payment Successful</t>
   </si>
   <si>
-    <t>04:30 PM - 12:00 AM</t>
-  </si>
-  <si>
     <t>https://demo.workorbits.com/enterprise-admin/team-member</t>
   </si>
   <si>
     <t>test@agency.com</t>
+  </si>
+  <si>
+    <t>03:00 PM - 04:00 PM</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922E1C3F-873D-44DC-AD7E-AD749EFE0E82}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -623,7 +623,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C77C381-2B30-4D71-9E07-FCC1ACFAA2CD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -878,7 +878,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +900,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -922,7 +922,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -966,7 +966,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1286,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1338,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,25 +5,47 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\eclipse-workspace\AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\eclipse-workspace\Test\AutomationProject\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174B15E-ABD0-4F3A-8B7D-76ED8911DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE03BD26-B232-4C9A-9F34-F264F15C0000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="signUp" sheetId="2" r:id="rId1"/>
-    <sheet name="login" sheetId="1" r:id="rId2"/>
-    <sheet name="login_with_valid_email_and_pass" sheetId="3" r:id="rId3"/>
-    <sheet name="login_with_valid_phNum_pass" sheetId="4" r:id="rId4"/>
-    <sheet name="validation_for_invalid_PhEmail" sheetId="5" r:id="rId5"/>
-    <sheet name="validation_for_empty_pass" sheetId="6" r:id="rId6"/>
-    <sheet name="forgot_pass_with_valid_email" sheetId="7" r:id="rId7"/>
-    <sheet name="validation_For_empty_emailPhone" sheetId="8" r:id="rId8"/>
-    <sheet name="validation_On_Empty_OTP" sheetId="9" r:id="rId9"/>
-    <sheet name="validation_On_Empty_NewPassword" sheetId="10" r:id="rId10"/>
-    <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId11"/>
+    <sheet name="enterprise3" sheetId="16" r:id="rId1"/>
+    <sheet name="enterprise4" sheetId="17" r:id="rId2"/>
+    <sheet name="enterprise5" sheetId="18" r:id="rId3"/>
+    <sheet name="enterprise6" sheetId="19" r:id="rId4"/>
+    <sheet name="teamMember" sheetId="20" r:id="rId5"/>
+    <sheet name="validation_for_invalid_Name" sheetId="21" r:id="rId6"/>
+    <sheet name="validation_for_invalid_Mobile" sheetId="22" r:id="rId7"/>
+    <sheet name="validation_for_invalid_Email" sheetId="23" r:id="rId8"/>
+    <sheet name="proofofwork" sheetId="24" r:id="rId9"/>
+    <sheet name="proofofwork1" sheetId="25" r:id="rId10"/>
+    <sheet name="proofofwork2" sheetId="26" r:id="rId11"/>
+    <sheet name="proofofwork3" sheetId="27" r:id="rId12"/>
+    <sheet name="managedownload" sheetId="28" r:id="rId13"/>
+    <sheet name="managedownload1" sheetId="29" r:id="rId14"/>
+    <sheet name="managedownload2" sheetId="30" r:id="rId15"/>
+    <sheet name="managedownload3" sheetId="31" r:id="rId16"/>
+    <sheet name="manageattendance" sheetId="32" r:id="rId17"/>
+    <sheet name="manageattendance1" sheetId="33" r:id="rId18"/>
+    <sheet name="manageattendance2" sheetId="34" r:id="rId19"/>
+    <sheet name="signUp" sheetId="2" r:id="rId20"/>
+    <sheet name="login" sheetId="1" r:id="rId21"/>
+    <sheet name="login_with_valid_email_and_pass" sheetId="3" r:id="rId22"/>
+    <sheet name="login_with_valid_phNum_pass" sheetId="4" r:id="rId23"/>
+    <sheet name="validation_for_invalid_PhEmail" sheetId="5" r:id="rId24"/>
+    <sheet name="validation_for_empty_pass" sheetId="6" r:id="rId25"/>
+    <sheet name="forgot_pass_with_valid_email" sheetId="7" r:id="rId26"/>
+    <sheet name="validation_For_empty_emailPhone" sheetId="8" r:id="rId27"/>
+    <sheet name="validation_On_Empty_OTP" sheetId="9" r:id="rId28"/>
+    <sheet name="validation_On_Empty_NewPassword" sheetId="10" r:id="rId29"/>
+    <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId30"/>
+    <sheet name="enterprise" sheetId="13" r:id="rId31"/>
+    <sheet name="enterprise1" sheetId="14" r:id="rId32"/>
+    <sheet name="enterprise2" sheetId="15" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="61">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -134,13 +156,97 @@
   </si>
   <si>
     <t>https://demo.workorbits.com/dashboard/ongoing1</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>verificationcode</t>
+  </si>
+  <si>
+    <t>Expectedmessage</t>
+  </si>
+  <si>
+    <t>dhruviEnterpriseTeam@gmail.com</t>
+  </si>
+  <si>
+    <t>Enterprise*383</t>
+  </si>
+  <si>
+    <t>dhruvisuperadmin1@gmail.com</t>
+  </si>
+  <si>
+    <t>q!5g2jHM</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>https://demo.workorbits.com/credits/wallet-payout</t>
+  </si>
+  <si>
+    <t>Mobilenumber</t>
+  </si>
+  <si>
+    <t>UPIID</t>
+  </si>
+  <si>
+    <t>expectedmessage</t>
+  </si>
+  <si>
+    <t>8888888888@ybi</t>
+  </si>
+  <si>
+    <t>Payment Successful</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>test@agency.com</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>ggg2@gmail.com</t>
+  </si>
+  <si>
+    <t>https://demo.workorbits.com/enterprise-admin/team-member</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Please enter a valid name</t>
+  </si>
+  <si>
+    <t>Please enter a valid mobile number</t>
+  </si>
+  <si>
+    <t>ggg2gmail.com</t>
+  </si>
+  <si>
+    <t>Please enter valid email</t>
+  </si>
+  <si>
+    <t>expectedMessage</t>
+  </si>
+  <si>
+    <t>04:30 PM - 12:00 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +258,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,9 +297,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,6 +585,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B85681-39A0-4E90-92EB-07C3D1FE9597}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EE549D-8BB0-402C-AD95-8E67456179A2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{49EA14CC-8444-4EF7-965C-FEED7B7B7EC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00664621-4AA3-473D-AE6A-C88151F23F29}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{19AF7549-C867-40FD-B022-547F2984DECD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41812C9F-BE8A-411F-BCFE-9CC7040E6833}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0477A4A8-C807-4468-BA48-5EAD17B4EB72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D3F2B0-B1AE-4080-8C0D-A5638D1F15F1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3C1F9FB2-6100-4A11-8F67-A73B1A5640FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6EBAA-A148-40D1-910D-971B2AB95FED}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{02D5B85A-8945-48CA-BCAE-26CA56473117}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89443DCB-061C-4730-A501-2441993C0F14}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{714301B7-4C74-4ED5-B271-CD4198E2C667}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB44F21-0F73-41C2-B31A-7FC19356E804}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AAF2700E-F244-41C9-A32B-D1B5C740778B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7568D7B-7AD1-459A-958E-A63BFADA65D3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3542FBA1-DA67-45FB-A0AE-E32CEAA43887}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8D575-E981-4F0C-8B29-221192256D37}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{758B3D36-502C-4F9E-B2FE-FD6CDE29263F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52E259-0743-499C-872E-353F83BE6FF0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{47D11785-0457-4714-84DE-1C04B43DDE12}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61612E99-A323-48B0-940D-E0F0EE121C40}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB981E43-EC92-4082-87A8-F886F963D720}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -525,177 +1182,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD963A91-83AC-4848-95D9-E1D1F39A5559}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E697C9A2-400B-42F8-A636-4B91B093E985}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E928408B-0415-4076-867D-9CC09173BC76}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C82677-9536-4C69-8C87-A904A79E901B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{14F7C46B-30DA-4D55-94C7-F9B9C5C1944D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75DB434-9AF3-48BA-81E1-8D2FDED835D8}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2">
-        <v>12345</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7CE641FC-872E-4366-AF18-55F867FB75E5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E697C9A2-400B-42F8-A636-4B91B093E985}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{E928408B-0415-4076-867D-9CC09173BC76}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C82677-9536-4C69-8C87-A904A79E901B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -706,18 +1267,17 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3A6DB40C-9E29-4D79-81F0-3652531D6828}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{AD0E4830-B471-424C-88BA-47596DE66A8D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD1DA7-E1BE-4ED3-AA4F-869C5296E924}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BCF084-8D3F-4232-AE52-C2BF5DEF39F4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -852,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A54795-F5B5-42CD-BABB-F3610715E5F1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -888,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86090C96-E729-4A1A-95B3-4612F42026A8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -941,7 +1501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E381B-E8C8-4FE3-9BF1-5C35EA0C120C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -969,7 +1529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068E75-5F11-49BD-A9DE-BD04A76D5812}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1013,4 +1573,706 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD963A91-83AC-4848-95D9-E1D1F39A5559}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{14F7C46B-30DA-4D55-94C7-F9B9C5C1944D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BBE43C-14D1-4023-899C-E5C9904676B5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>8888888888</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E747AC11-19C5-43CF-AFA6-AA1A7E73BCEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75DB434-9AF3-48BA-81E1-8D2FDED835D8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7CE641FC-872E-4366-AF18-55F867FB75E5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA10C70B-3ADD-4EA1-9547-EBF16BBF84D2}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA9B16A-9375-45E7-9FAC-76188A70ECF5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC410C4-D57E-446C-8172-3A18557F947F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{45A59794-8B22-4E7F-A8D2-9D1B1F1E957E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E100ABB0-C990-403E-825B-AF07A73FF5E8}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>8888888888</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7E1E6A30-FBF9-4B26-A6B3-C85BE7577106}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DA62D-B2F9-406B-8933-D2A4D4A0087C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>2357648901</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{490A065C-4FAA-4B65-888F-0FF82ADC13EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB345CE-8B06-46FC-960B-BD4DEF78C5D2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>2357648901</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A9490A88-926D-49D1-B197-3050D6D04654}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C46D4A-6777-496A-8204-CB346A519ADE}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>23576489</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{761B050A-BCA7-447D-B19E-F7FB8FCA5704}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914E617-9322-4F43-BF2D-382AD33A2889}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>2357648901</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="ggg2@gmail.com" xr:uid="{F00CF6FE-EBCF-48B7-B2A5-FE968C5204A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895CCB18-D5CF-4F66-A711-93B88D2DD18B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7E6DA57E-1201-41C9-9E7B-1ABCCDD02D00}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBA8F5-3197-4916-9036-71C900F0E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767CA3A7-22F5-4E47-A5A4-F7570A06C4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3000" windowWidth="17280" windowHeight="9960" firstSheet="49" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5316" yWindow="2064" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -34,36 +34,40 @@
     <sheet name="SendProposalWithoutBill" sheetId="21" r:id="rId19"/>
     <sheet name="ApploginChamp" sheetId="22" r:id="rId20"/>
     <sheet name="ApploginVendor" sheetId="27" r:id="rId21"/>
-    <sheet name="JobApplicationApproval" sheetId="26" r:id="rId22"/>
-    <sheet name="JobApplicationReject" sheetId="28" r:id="rId23"/>
-    <sheet name="createNewClient" sheetId="29" r:id="rId24"/>
-    <sheet name="verify_NameError" sheetId="30" r:id="rId25"/>
-    <sheet name="verify_PhoneError" sheetId="31" r:id="rId26"/>
-    <sheet name="verify_EmailError" sheetId="32" r:id="rId27"/>
-    <sheet name="ViewtaskPage" sheetId="33" r:id="rId28"/>
-    <sheet name="CreateworkorderPage" sheetId="34" r:id="rId29"/>
-    <sheet name="verify_LocationError" sheetId="35" r:id="rId30"/>
-    <sheet name="verify_DateError" sheetId="36" r:id="rId31"/>
-    <sheet name="verify_StarttimeError" sheetId="37" r:id="rId32"/>
-    <sheet name="verify_EndtimeError" sheetId="38" r:id="rId33"/>
-    <sheet name="createProjectForAgencies" sheetId="39" r:id="rId34"/>
-    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId35"/>
-    <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId36"/>
-    <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId37"/>
-    <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId38"/>
-    <sheet name="CreateProjectInvalidFrequency" sheetId="44" r:id="rId39"/>
-    <sheet name="CreateProjectInvalidRadius" sheetId="45" r:id="rId40"/>
-    <sheet name="ProjectApprovalAgencies" sheetId="46" r:id="rId41"/>
-    <sheet name="ExistingInvalidEnterprise" sheetId="47" r:id="rId42"/>
-    <sheet name="AcceptRejectClients" sheetId="48" r:id="rId43"/>
-    <sheet name="AcceptRejectInvalidEnterprise" sheetId="49" r:id="rId44"/>
-    <sheet name="AcceptRejectInvalidProjectType" sheetId="50" r:id="rId45"/>
-    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="51" r:id="rId46"/>
-    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="52" r:id="rId47"/>
-    <sheet name="AcceptRejectInvalidFrequency" sheetId="53" r:id="rId48"/>
-    <sheet name="AcceptRejectInvalidRadius" sheetId="54" r:id="rId49"/>
-    <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId50"/>
-    <sheet name="LoginEnterprise" sheetId="57" r:id="rId51"/>
+    <sheet name="ApplicationAgencyAccept" sheetId="26" r:id="rId22"/>
+    <sheet name="ApplicationAgencyReject" sheetId="61" r:id="rId23"/>
+    <sheet name="ApplicationEnterpriseAccept" sheetId="59" r:id="rId24"/>
+    <sheet name="ApplicationEnterpriseReject" sheetId="60" r:id="rId25"/>
+    <sheet name="JobApplicationReject" sheetId="28" r:id="rId26"/>
+    <sheet name="createNewClient" sheetId="29" r:id="rId27"/>
+    <sheet name="verify_NameError" sheetId="30" r:id="rId28"/>
+    <sheet name="verify_PhoneError" sheetId="31" r:id="rId29"/>
+    <sheet name="verify_EmailError" sheetId="32" r:id="rId30"/>
+    <sheet name="ViewtaskPage" sheetId="33" r:id="rId31"/>
+    <sheet name="CreateworkorderPage" sheetId="34" r:id="rId32"/>
+    <sheet name="verify_LocationError" sheetId="35" r:id="rId33"/>
+    <sheet name="verify_DateError" sheetId="36" r:id="rId34"/>
+    <sheet name="verify_StarttimeError" sheetId="37" r:id="rId35"/>
+    <sheet name="verify_EndtimeError" sheetId="38" r:id="rId36"/>
+    <sheet name="createProjectForAgencies" sheetId="39" r:id="rId37"/>
+    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId38"/>
+    <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId39"/>
+    <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId40"/>
+    <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId41"/>
+    <sheet name="CreateProjectInvalidFrequency" sheetId="44" r:id="rId42"/>
+    <sheet name="CreateProjectInvalidRadius" sheetId="45" r:id="rId43"/>
+    <sheet name="ProjectApprovalAgencies" sheetId="46" r:id="rId44"/>
+    <sheet name="ExistingInvalidEnterprise" sheetId="47" r:id="rId45"/>
+    <sheet name="AcceptRejectClients" sheetId="48" r:id="rId46"/>
+    <sheet name="AcceptRejectInvalidEnterprise" sheetId="49" r:id="rId47"/>
+    <sheet name="AcceptRejectInvalidProjectType" sheetId="50" r:id="rId48"/>
+    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="51" r:id="rId49"/>
+    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="52" r:id="rId50"/>
+    <sheet name="AcceptRejectInvalidFrequency" sheetId="53" r:id="rId51"/>
+    <sheet name="AcceptRejectInvalidRadius" sheetId="54" r:id="rId52"/>
+    <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId53"/>
+    <sheet name="LoginEnterprise" sheetId="57" r:id="rId54"/>
+    <sheet name="loginDhruviEnterprise" sheetId="58" r:id="rId55"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -75,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="126">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -380,9 +384,6 @@
     <t>rtyehsgd@gmail.com</t>
   </si>
   <si>
-    <t>Workorder18</t>
-  </si>
-  <si>
     <t>Please select enterprise</t>
   </si>
   <si>
@@ -438,6 +439,24 @@
   </si>
   <si>
     <t>ankur@gmail.com</t>
+  </si>
+  <si>
+    <t>EnterPassword</t>
+  </si>
+  <si>
+    <t>dhruviEnterpriseTeam@gmail.com</t>
+  </si>
+  <si>
+    <t>Enterprise*383</t>
+  </si>
+  <si>
+    <t>Workorbit Automation[44]</t>
+  </si>
+  <si>
+    <t>Workorbit Automation [44]</t>
+  </si>
+  <si>
+    <t>Job application status updated…</t>
   </si>
 </sst>
 </file>
@@ -853,7 +872,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1924,14 +1943,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250B3F6-4918-4398-AC3E-A7EFE64E1EFE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1948,32 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250B3F6-4918-4398-AC3E-A7EFE64E1EFE}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD2750-EED1-428F-8388-205265444F9E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2032,7 +2136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8AB26-0B61-4C59-8DDA-093F26B52844}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2089,7 +2193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503DC47-B116-4D17-AE19-50721CC0959C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2142,136 +2246,6 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8828888221</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E363F-D977-48CD-A149-24DD684993FA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7BB7BEC7-7F1D-4B6A-A3EA-0E5EA8BCCBE9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1BBAAD-6678-4E19-8B13-58152367CADD}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.399999999999999">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2419,6 +2393,136 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8828888221</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E363F-D977-48CD-A149-24DD684993FA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7BB7BEC7-7F1D-4B6A-A3EA-0E5EA8BCCBE9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1BBAAD-6678-4E19-8B13-58152367CADD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C57AC0-C7C3-475F-B533-0FDB60E6D5B3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2460,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C11A08-48AD-4E99-ABB8-719FE09B87FE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2499,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832B071D-2BB8-4CF9-AEA5-5BD898CC6F36}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2538,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E758CD7-433A-4255-9C68-74245BB828C9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2576,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C52D7E-DA4B-4987-81FF-4F055ABBBFD8}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -2762,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2828,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0834A119-F09C-48DA-8867-7EB5777391E7}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2905,7 +3009,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7133107-D6BF-4563-B891-4F611F5AEE22}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39026464-7D8D-41F2-BDDB-85661F9F3AE1}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2982,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAFF7CB-EE50-4142-8865-333ED5F466FF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3116,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76D7EC-F434-4638-ABDC-C5C74F9D35AE}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3251,35 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7133107-D6BF-4563-B891-4F611F5AEE22}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA73E5F2-1FE0-463D-A024-831C739601AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3416,17 +3520,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE61F3-0725-4CCD-B968-91BBE06FC3B1}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
@@ -3445,11 +3549,13 @@
     <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="32.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="17.399999999999999">
+    <col min="22" max="22" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3513,16 +3619,22 @@
       <c r="U1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.6">
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>112233</v>
+        <v>1234</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -3569,14 +3681,20 @@
       <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
-        <v>82</v>
+      <c r="S2" s="3">
+        <v>45534</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3F25C-C62B-4C6F-A447-8547605FC178}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3610,15 +3728,15 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -3738,13 +3856,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8">
         <v>4652435055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3825,7 +3943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAC0FF-286F-46B7-BBAA-D4CA6606D8D6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3860,18 +3978,18 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8">
         <v>4634324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3880,7 +3998,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74E19EC-BAD7-45A6-BDC7-BE2822865102}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3932,13 +4050,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8">
         <v>4621224055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3958,7 +4076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48AFEB9-544F-406E-A022-9A237CD1A13E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4006,13 +4124,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8">
         <v>4324524055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4035,7 +4153,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3898C06-4442-4974-B7E8-CA497002BB2B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345C9F5-DEB8-45C8-85C9-47F87B6DE846}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4083,13 +4240,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="8">
         <v>4324324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4112,7 +4269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CF0F0-FF27-4B98-AE80-708D2DD33310}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4192,13 +4349,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8">
         <v>6666324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4249,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8DCD-81DD-4A5C-B647-C520CEAD1ACF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4325,13 +4482,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8">
         <v>6709824055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4382,46 +4539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3898C06-4442-4974-B7E8-CA497002BB2B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4456,18 +4574,18 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8">
         <v>4630987055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4476,7 +4594,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4487,11 +4605,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B168306-E92A-46FA-9930-4BF54AE7CCAF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4511,7 +4629,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -4521,6 +4639,42 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BA607E3B-20F4-4174-864E-83C960003DC0}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8483737-F7D2-4A8C-8B06-512165C3561C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767CA3A7-22F5-4E47-A5A4-F7570A06C4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE39787-A0DC-4B29-928D-C3CDD3AAC061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5316" yWindow="2064" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3708" yWindow="2748" windowWidth="17280" windowHeight="9960" firstSheet="42" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="129">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -450,13 +450,22 @@
     <t>Enterprise*383</t>
   </si>
   <si>
-    <t>Workorbit Automation[44]</t>
-  </si>
-  <si>
-    <t>Workorbit Automation [44]</t>
-  </si>
-  <si>
     <t>Job application status updated…</t>
+  </si>
+  <si>
+    <t>SearchAgency</t>
+  </si>
+  <si>
+    <t>August New Agency</t>
+  </si>
+  <si>
+    <t>EnterAgencyEmail</t>
+  </si>
+  <si>
+    <t>Workorbit Automation [55]</t>
+  </si>
+  <si>
+    <t>Workorbit Automation[55]</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1960,7 +1969,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +1997,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2025,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2053,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3522,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE61F3-0725-4CCD-B968-91BBE06FC3B1}">
-  <dimension ref="A1:W2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3548,14 +3557,16 @@
     <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="17.399999999999999">
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3610,25 +3621,34 @@
       <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>81</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.6">
+    <row r="2" spans="1:26" ht="15.6">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -3681,30 +3701,40 @@
       <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2" s="3">
         <v>45534</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>121</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1:U2">
+  <conditionalFormatting sqref="V1:X2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE39787-A0DC-4B29-928D-C3CDD3AAC061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA165DF-5D3F-400C-B291-CC157B3A32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2748" windowWidth="17280" windowHeight="9960" firstSheet="42" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4032" yWindow="4296" windowWidth="17280" windowHeight="9960" firstSheet="44" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -387,12 +387,6 @@
     <t>Please select enterprise</t>
   </si>
   <si>
-    <t>hhhfhf</t>
-  </si>
-  <si>
-    <t>jhhgu@gmail.com</t>
-  </si>
-  <si>
     <t>ExpectedMessage</t>
   </si>
   <si>
@@ -466,6 +460,24 @@
   </si>
   <si>
     <t>Workorbit Automation[55]</t>
+  </si>
+  <si>
+    <t>Work order approved successfully!</t>
+  </si>
+  <si>
+    <t>Yash Project</t>
+  </si>
+  <si>
+    <t>NewEnterpriseEmail</t>
+  </si>
+  <si>
+    <t>Project Status Updated Successfully!</t>
+  </si>
+  <si>
+    <t>YASHCLIENT333</t>
+  </si>
+  <si>
+    <t>YashCLient32@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -881,7 +893,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1964,12 +1976,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2009,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2020,12 +2032,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2065,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3531,10 +3543,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE61F3-0725-4CCD-B968-91BBE06FC3B1}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3564,9 +3576,10 @@
     <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="17.399999999999999">
+    <col min="27" max="27" width="37.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3622,10 +3635,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
         <v>124</v>
-      </c>
-      <c r="T1" t="s">
-        <v>126</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -3643,12 +3656,15 @@
         <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.6">
+        <v>118</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -3702,10 +3718,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -3714,16 +3730,19 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3768,43 +3787,46 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3821,78 +3843,87 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="Z1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8">
-        <v>4652435055</v>
+        <v>8383876319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3901,73 +3932,82 @@
         <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8">
+      <c r="J2" s="8">
         <v>112233</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N2" s="8">
         <v>3</v>
       </c>
-      <c r="M2" s="10">
+      <c r="O2" s="10">
         <v>45537</v>
       </c>
-      <c r="N2" s="10">
+      <c r="P2" s="10">
         <v>45545</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="8">
+      <c r="R2" s="8">
         <v>10</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="S2" s="8">
         <v>50</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8">
+      <c r="V2" s="8">
         <v>50000</v>
       </c>
-      <c r="U2" s="8">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="V2" s="8">
+      <c r="X2" s="8">
         <v>5</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="10">
-        <v>45534</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>84</v>
+      <c r="Z2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2">
+        <v>123456</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6ABDDF0-7DD7-4FD5-A9C5-8F41DAD9B480}"/>
-    <hyperlink ref="J2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
+    <hyperlink ref="L2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4008,18 +4048,18 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8">
         <v>4634324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4080,13 +4120,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8">
         <v>4621224055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4154,13 +4194,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8">
         <v>4324524055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4270,13 +4310,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8">
         <v>4324324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4379,13 +4419,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="8">
         <v>6666324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4512,13 +4552,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8">
         <v>6709824055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4604,18 +4644,18 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="8">
         <v>4630987055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4659,7 +4699,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -4693,15 +4733,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA165DF-5D3F-400C-B291-CC157B3A32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C43CE-2551-4F34-9E5F-C31ECCE3A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="4296" windowWidth="17280" windowHeight="9960" firstSheet="44" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="3288" windowWidth="17280" windowHeight="9960" firstSheet="44" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="132">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t>Yash Project</t>
-  </si>
-  <si>
-    <t>NewEnterpriseEmail</t>
   </si>
   <si>
     <t>Project Status Updated Successfully!</t>
@@ -3787,10 +3784,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3800,33 +3797,32 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3843,87 +3839,84 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>122</v>
+      </c>
       <c r="Z1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="8">
         <v>8383876319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3931,83 +3924,80 @@
       <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="8">
         <v>123456</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8">
+      <c r="I2" s="8">
         <v>112233</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="8">
+      <c r="M2" s="8">
         <v>3</v>
       </c>
+      <c r="N2" s="10">
+        <v>45537</v>
+      </c>
       <c r="O2" s="10">
-        <v>45537</v>
-      </c>
-      <c r="P2" s="10">
         <v>45545</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="Q2" s="8">
+        <v>10</v>
+      </c>
       <c r="R2" s="8">
-        <v>10</v>
-      </c>
-      <c r="S2" s="8">
         <v>50</v>
       </c>
+      <c r="S2" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="T2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="U2" s="8">
+        <v>50000</v>
+      </c>
       <c r="V2" s="8">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="W2" s="8">
-        <v>1</v>
-      </c>
-      <c r="X2" s="8">
         <v>5</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="Y2" t="s">
+        <v>123</v>
+      </c>
       <c r="Z2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA2" t="s">
         <v>115</v>
       </c>
-      <c r="AB2">
+      <c r="AA2">
         <v>123456</v>
       </c>
-      <c r="AC2" t="s">
-        <v>130</v>
+      <c r="AB2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6ABDDF0-7DD7-4FD5-A9C5-8F41DAD9B480}"/>
-    <hyperlink ref="L2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
+    <hyperlink ref="K2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C43CE-2551-4F34-9E5F-C31ECCE3A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E1F040-DD88-4FD8-A2B4-96E40CB865B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="3288" windowWidth="17280" windowHeight="9960" firstSheet="44" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="3036" windowWidth="17280" windowHeight="9960" firstSheet="45" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -3786,7 +3786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4007,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAC0FF-286F-46B7-BBAA-D4CA6606D8D6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F5C6C-915D-4254-AA97-2519EB39496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198623A-F2CD-4581-89B4-1ACFC758DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -170,13 +170,25 @@
     <t>Payment Successful</t>
   </si>
   <si>
-    <t>https://demo.workorbits.com/enterprise-admin/team-member</t>
-  </si>
-  <si>
     <t>test@agency.com</t>
   </si>
   <si>
-    <t>03:00 PM - 04:00 PM</t>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>expectedmessage1</t>
+  </si>
+  <si>
+    <t>Team Member Added Successfully!</t>
+  </si>
+  <si>
+    <t>04:30 PM - 12:00 AM</t>
+  </si>
+  <si>
+    <t>efg</t>
+  </si>
+  <si>
+    <t>efi2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -572,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922E1C3F-873D-44DC-AD7E-AD749EFE0E82}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,27 +615,27 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>2357648901</v>
+        <v>7696453870</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +684,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -736,7 +748,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -767,7 +779,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +813,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -831,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C77C381-2B30-4D71-9E07-FCC1ACFAA2CD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,26 +861,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D9F069D1-EFA8-4632-9182-D208E63E559A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -878,7 +882,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,25 +898,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FB743AEF-49EC-4CAA-A1F9-2837DCE5DC8D}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -922,7 +918,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,25 +934,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{79E67732-73EA-4229-97FE-D622B11F9735}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -966,7 +954,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,25 +970,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6201E414-CFFD-4B46-BB7E-AE63C6B8E0E3}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1010,7 +990,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,25 +1006,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5498F432-7864-4CA3-BC05-25C384618772}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1054,7 +1026,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,25 +1042,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6A8EEF88-61E7-430E-90CF-B1DD20FA50D5}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1163,7 +1127,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,25 +1143,17 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{58EB422B-0276-403C-ACD7-54E041194FB3}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1223,45 +1179,37 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D13446C8-31C7-4FCA-BE8A-EB87542A5EA5}"/>
-  </hyperlinks>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504837D7-CDAC-4452-A50C-6BB5E71C033B}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="CU8" sqref="CU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,51 +1217,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{84A78D77-1377-4B69-9CCF-0327551FB0CF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8255F741-CCAA-4DB8-859E-123EFAA89F64}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,51 +1260,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0DF61C01-6170-4F45-8D2D-52F3B3864A1C}"/>
-  </hyperlinks>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA2F87-8BF3-4A82-96FA-67200541DCE9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,30 +1303,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E282A9B4-4BEA-46BD-897C-136FFB797A20}"/>
-  </hyperlinks>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1624,7 +1545,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A5E86F-5A49-4469-B3AD-319B1C94D643}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,10 +1589,10 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <col min="5" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,8 +1608,11 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1703,6 +1627,9 @@
       </c>
       <c r="E2" t="s">
         <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1715,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F5E3C-26E5-4EDA-B188-6E8C4612716C}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,9 +1655,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1746,8 +1674,11 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1762,6 +1693,9 @@
       </c>
       <c r="E2" t="s">
         <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E1F040-DD88-4FD8-A2B4-96E40CB865B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601613F-F8D3-4516-A106-8C1968688CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="3036" windowWidth="17280" windowHeight="9960" firstSheet="45" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="2844" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>YashCLient32@gmail.com</t>
+  </si>
+  <si>
+    <t>Congratulations! The project is Created.</t>
   </si>
 </sst>
 </file>
@@ -2270,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE961D46-E6B2-410A-BCF0-B9BC1E0914E2}">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2288,9 +2291,10 @@
     <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2345,8 +2349,11 @@
       <c r="R1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2400,6 +2407,9 @@
       </c>
       <c r="R2" t="s">
         <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4007,7 +4017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAC0FF-286F-46B7-BBAA-D4CA6606D8D6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601613F-F8D3-4516-A106-8C1968688CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C834A7-CD11-4420-9F30-B78960373AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2844" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2532" yWindow="1908" windowWidth="17280" windowHeight="9960" firstSheet="61" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,14 @@
     <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId53"/>
     <sheet name="LoginEnterprise" sheetId="57" r:id="rId54"/>
     <sheet name="loginDhruviEnterprise" sheetId="58" r:id="rId55"/>
+    <sheet name="CreateProjectEnterpriseData" sheetId="62" r:id="rId56"/>
+    <sheet name="EnterpriseImproperProjectType" sheetId="63" r:id="rId57"/>
+    <sheet name="EnterpriseInvalidProjectDesc" sheetId="64" r:id="rId58"/>
+    <sheet name="EnterpriseInvalidFieldName" sheetId="65" r:id="rId59"/>
+    <sheet name="EnterpriseInvalidFieldType" sheetId="66" r:id="rId60"/>
+    <sheet name="EnterpriseInvalidFrequency" sheetId="67" r:id="rId61"/>
+    <sheet name="EnterpriseInvalidRadius" sheetId="68" r:id="rId62"/>
+    <sheet name="EnterpriseInvalidProjectTitle" sheetId="69" r:id="rId63"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -79,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="133">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -916,7 +924,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2275,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE961D46-E6B2-410A-BCF0-B9BC1E0914E2}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4749,12 +4757,327 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA87A915-C7BE-422B-A092-1049B1E9ED44}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B783FF12-884C-4317-9AFA-3D05F8FBDDED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6693BB1-7EC9-47E6-9012-0810E16FC4BF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76882555-1842-49EC-BCB9-8125EF36751B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF5F809-C50B-464C-B347-F446AB1585F9}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3BB8C0B7-9F3D-406A-A6C8-BAB0E197D063}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D85BB9-DBD4-4F32-9778-B829107BA15C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4848,12 +5171,340 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2315D5-75BB-49E3-BEEE-25937632A3E2}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B463FCC6-6DFA-4599-9D77-F3CD6C7CD538}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D1170-1D31-4C3F-8532-F424B03E3199}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{02B31D6A-BFEC-4CE7-993E-DDF37172A5EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177B8994-7FCB-45E1-8A1D-165238A2A2F7}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EB5289B9-DDF0-4ED4-BA24-32302EFD4449}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009ED5BE-2E1F-4AA7-A990-4EE333199D29}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C7130-F225-4D11-A4B5-0BA6AFD00335}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4941,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65ECB3C-3CD2-4687-9133-B968640F2EB8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
@@ -5043,7 +5694,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="B1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C834A7-CD11-4420-9F30-B78960373AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB46C3A-1C00-44FB-8571-EC7BC3B76A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="1908" windowWidth="17280" windowHeight="9960" firstSheet="61" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="1656" windowWidth="17280" windowHeight="9960" firstSheet="37" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <sheet name="verify_StarttimeError" sheetId="37" r:id="rId35"/>
     <sheet name="verify_EndtimeError" sheetId="38" r:id="rId36"/>
     <sheet name="createProjectForAgencies" sheetId="39" r:id="rId37"/>
-    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId38"/>
+    <sheet name="CreateProjectInvalidProjectType" sheetId="40" r:id="rId38"/>
     <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId39"/>
     <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId40"/>
     <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId41"/>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5464,7 +5464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009ED5BE-2E1F-4AA7-A990-4EE333199D29}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB46C3A-1C00-44FB-8571-EC7BC3B76A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAE61D-F66E-4D69-8CAE-DB1A7F54FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="1656" windowWidth="17280" windowHeight="9960" firstSheet="37" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="66" activeTab="68" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,12 @@
     <sheet name="EnterpriseInvalidFrequency" sheetId="67" r:id="rId61"/>
     <sheet name="EnterpriseInvalidRadius" sheetId="68" r:id="rId62"/>
     <sheet name="EnterpriseInvalidProjectTitle" sheetId="69" r:id="rId63"/>
+    <sheet name="ProjectApproveInvalidProjectTyp" sheetId="71" r:id="rId64"/>
+    <sheet name="ProjectApprovInvalidProjectTltl" sheetId="72" r:id="rId65"/>
+    <sheet name="ProjectApprovInvalidProjectDesc" sheetId="73" r:id="rId66"/>
+    <sheet name="ProjectApprovInvalidFieldName" sheetId="74" r:id="rId67"/>
+    <sheet name="ProjectApprovInvalidFrequency" sheetId="75" r:id="rId68"/>
+    <sheet name="ProjectApprovInvalidRadius" sheetId="76" r:id="rId69"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -87,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="133">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -2906,7 +2912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4912,7 +4918,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4940,7 +4946,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4979,7 +4985,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5263,7 +5269,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5364,7 +5370,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5465,7 +5471,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5495,6 +5501,412 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3545190-3E98-4DFC-8A83-33F0E8F12FB7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DD90E8-6DEC-4434-B9D4-05470D487C82}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3488B6-DDBA-4D39-9477-2C32FF11B842}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E472E-5BAF-4610-9454-7984E44DBD6F}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{51DE10F2-6793-4F54-9059-549C61FC4B99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CD119B-7522-494B-9107-7CA6F4DD1642}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{7E13BB49-0E5C-4320-A075-C7422B79D468}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65575F7A-AB1E-489C-9E16-96BDE335081D}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{868FF878-19CC-4CC5-B908-4F692700B177}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAE61D-F66E-4D69-8CAE-DB1A7F54FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCCA656-8F1D-4C3B-9264-4D958A27A6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="66" activeTab="68" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="3120" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="140">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -492,6 +492,27 @@
   </si>
   <si>
     <t>Congratulations! The project is Created.</t>
+  </si>
+  <si>
+    <t>EnterpriseLogin</t>
+  </si>
+  <si>
+    <t>EnterprisePassword</t>
+  </si>
+  <si>
+    <t>Manage Job Application Access [1]</t>
+  </si>
+  <si>
+    <t>enterpriseLogin</t>
+  </si>
+  <si>
+    <t>enterprisePassword</t>
+  </si>
+  <si>
+    <t>agencyLogin</t>
+  </si>
+  <si>
+    <t>agencyOTP</t>
   </si>
 </sst>
 </file>
@@ -501,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +561,24 @@
       <color theme="1"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080A52"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -562,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -580,12 +619,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1976,113 +2059,373 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2524,7 +2867,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2558,7 +2901,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3768,7 +4111,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
@@ -5814,7 +6157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65575F7A-AB1E-489C-9E16-96BDE335081D}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCCA656-8F1D-4C3B-9264-4D958A27A6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD8D07-965F-430C-B3B9-E25C2F5B5D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="3120" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2424" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Enterprise*383</t>
   </si>
   <si>
-    <t>Job application status updated…</t>
-  </si>
-  <si>
     <t>SearchAgency</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>agencyOTP</t>
+  </si>
+  <si>
+    <t>Job application status updated...</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +579,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,8 +627,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2061,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2075,7 +2081,7 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2088,11 +2094,11 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2101,10 +2107,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
         <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2115,15 +2121,15 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2138,13 +2144,13 @@
       <c r="I2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2154,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2168,7 +2174,7 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2181,11 +2187,11 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2194,10 +2200,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
         <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2208,15 +2214,15 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2231,13 +2237,13 @@
       <c r="I2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2248,7 +2254,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2261,7 +2267,7 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2274,11 +2280,11 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2287,10 +2293,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
         <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2301,15 +2307,15 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2324,13 +2330,13 @@
       <c r="I2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2341,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2355,7 +2361,7 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2368,11 +2374,11 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2381,10 +2387,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
         <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2395,15 +2401,15 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2418,8 +2424,8 @@
       <c r="I2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +2772,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2901,7 +2907,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3999,10 +4005,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -4028,7 +4034,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4082,7 +4088,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T2" t="s">
         <v>115</v>
@@ -4094,7 +4100,7 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
@@ -4106,12 +4112,12 @@
         <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
@@ -4263,10 +4269,10 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
@@ -4277,13 +4283,13 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="8">
         <v>8383876319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4295,7 +4301,7 @@
         <v>123456</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
@@ -4349,7 +4355,7 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z2" t="s">
         <v>115</v>
@@ -4358,7 +4364,7 @@
         <v>123456</v>
       </c>
       <c r="AB2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD8D07-965F-430C-B3B9-E25C2F5B5D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D0570F-035D-497E-83FA-5BAF2509F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2424" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2376" yWindow="1020" windowWidth="17280" windowHeight="9960" firstSheet="69" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,8 @@
     <sheet name="ProjectApprovInvalidFieldName" sheetId="74" r:id="rId67"/>
     <sheet name="ProjectApprovInvalidFrequency" sheetId="75" r:id="rId68"/>
     <sheet name="ProjectApprovInvalidRadius" sheetId="76" r:id="rId69"/>
+    <sheet name="AssignProjectVendorData" sheetId="78" r:id="rId70"/>
+    <sheet name="CreateProjectAssignVendor" sheetId="79" r:id="rId71"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="145">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -482,9 +484,6 @@
     <t>Project Status Updated Successfully!</t>
   </si>
   <si>
-    <t>YASHCLIENT333</t>
-  </si>
-  <si>
     <t>YashCLient32@gmail.com</t>
   </si>
   <si>
@@ -513,6 +512,24 @@
   </si>
   <si>
     <t>Job application status updated...</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>MobileResponsible</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Selected vendor assigned successfully!</t>
+  </si>
+  <si>
+    <t>Assign Project to Vendor</t>
   </si>
 </sst>
 </file>
@@ -522,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +602,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -607,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -629,6 +652,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDACBC94-543A-4AD0-8587-E5E2E3959052}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2067,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2095,10 +2119,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2107,10 +2131,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
         <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2121,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2145,7 +2169,7 @@
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2212,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2200,10 +2224,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
         <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2214,7 +2238,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2238,7 +2262,7 @@
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2281,10 +2305,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2293,10 +2317,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2307,7 +2331,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2331,7 +2355,7 @@
         <v>120</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2375,10 +2399,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2387,10 +2411,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2401,7 +2425,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2425,7 +2449,7 @@
         <v>120</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2796,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4159,16 +4183,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -4197,16 +4221,16 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4283,16 +4307,16 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="8">
-        <v>8383876319</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+      <c r="D2" s="8">
+        <v>8756457685</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -6349,6 +6373,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6CF95-7DCC-411E-A613-81E51BF82779}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB28864-FAB7-4FB9-93DA-E8EDDE2121F5}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{23D92CA9-9CC1-4B19-B6D3-8CE7C8BC508E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65ECB3C-3CD2-4687-9133-B968640F2EB8}">
   <dimension ref="A1:K2"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\Documents\GitHub\test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198623A-F2CD-4581-89B4-1ACFC758DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB803481-2BCE-4E65-B5B6-59A43C489938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="verify_Attendance_Workorder" sheetId="26" r:id="rId22"/>
     <sheet name="verify_Attendance_ViewTask" sheetId="27" r:id="rId23"/>
     <sheet name="verify_Attendance_Active" sheetId="28" r:id="rId24"/>
+    <sheet name="Assign_workorder_to_vendor" sheetId="29" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -101,9 +102,6 @@
     <t>expectedErrorMessage</t>
   </si>
   <si>
-    <t>Please enter a valid name</t>
-  </si>
-  <si>
     <t>ggg</t>
   </si>
   <si>
@@ -116,9 +114,6 @@
     <t>ggg2gmail.com</t>
   </si>
   <si>
-    <t>Please enter a valid mobile number</t>
-  </si>
-  <si>
     <t>Please enter valid email</t>
   </si>
   <si>
@@ -182,13 +177,37 @@
     <t>Team Member Added Successfully!</t>
   </si>
   <si>
-    <t>04:30 PM - 12:00 AM</t>
-  </si>
-  <si>
     <t>efg</t>
   </si>
   <si>
     <t>efi2@gmail.com</t>
+  </si>
+  <si>
+    <t>Please enter valid name</t>
+  </si>
+  <si>
+    <t>Please enter valid mobile</t>
+  </si>
+  <si>
+    <t>12:00 PM - 01:00 PM</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Workordertitle</t>
+  </si>
+  <si>
+    <t>virgil.dirk@dockstones.com</t>
+  </si>
+  <si>
+    <t>kasubf374</t>
+  </si>
+  <si>
+    <t>Workorder</t>
+  </si>
+  <si>
+    <t>Work order added successfully!</t>
   </si>
 </sst>
 </file>
@@ -246,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +273,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,27 +635,27 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>7696453870</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +671,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,22 +704,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>2357648901</v>
+        <v>9999999999</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +735,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,22 +768,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>23576489</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +799,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,22 +833,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>2357648901</v>
+        <v>9999999999</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C77C381-2B30-4D71-9E07-FCC1ACFAA2CD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +884,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -901,7 +921,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -937,7 +957,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -973,7 +993,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1009,7 +1029,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1045,7 +1065,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1146,7 +1166,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1182,7 +1202,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1198,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504837D7-CDAC-4452-A50C-6BB5E71C033B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CU8" sqref="CU8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,18 +1237,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1262,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,18 +1280,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1304,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,18 +1323,74 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1956BC6C-7116-4FCB-9BAD-679F9E0487DD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1344,45 +1420,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1414,45 +1490,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1488,13 +1564,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1524,15 +1600,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1559,15 +1635,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1597,39 +1673,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>8888888888</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1663,39 +1739,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>8888888888</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D0570F-035D-497E-83FA-5BAF2509F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074534D6-4833-4EB6-80C8-A1AA70239FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="1020" windowWidth="17280" windowHeight="9960" firstSheet="69" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="4668" windowWidth="17280" windowHeight="9960" firstSheet="58" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="136">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -406,42 +406,9 @@
     <t>ExpectedMessage</t>
   </si>
   <si>
-    <t>xdfdse</t>
-  </si>
-  <si>
     <t>fgd@gmail.com</t>
   </si>
   <si>
-    <t>ghfh</t>
-  </si>
-  <si>
-    <t>ghfjdy@gmail.com</t>
-  </si>
-  <si>
-    <t>fgdhf</t>
-  </si>
-  <si>
-    <t>gh@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfj@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfdsdd</t>
-  </si>
-  <si>
-    <t>fgfhd</t>
-  </si>
-  <si>
-    <t>ghfjdd@gmail.com</t>
-  </si>
-  <si>
-    <t>fgrr</t>
-  </si>
-  <si>
-    <t>trtrttt@gmail.com</t>
-  </si>
-  <si>
     <t>test@agency.com</t>
   </si>
   <si>
@@ -530,6 +497,12 @@
   </si>
   <si>
     <t>Assign Project to Vendor</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Dwayne</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +993,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -2119,10 +2092,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2131,10 +2104,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2145,16 +2118,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2163,13 +2136,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2212,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2224,10 +2197,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2238,16 +2211,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2256,13 +2229,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2305,10 +2278,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2317,10 +2290,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2331,16 +2304,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2349,13 +2322,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2399,10 +2372,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2411,10 +2384,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2425,16 +2398,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2443,13 +2416,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4029,10 +4002,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="T1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -4050,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AA1" t="s">
         <v>102</v>
@@ -4058,7 +4031,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4112,10 +4085,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -4124,19 +4097,19 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AA2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4221,16 +4194,16 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4293,10 +4266,10 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
@@ -4307,13 +4280,13 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8">
         <v>8756457685</v>
@@ -4325,7 +4298,7 @@
         <v>123456</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
@@ -4379,16 +4352,16 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Z2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA2">
         <v>123456</v>
       </c>
       <c r="AB2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4405,31 +4378,31 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4440,16 +4413,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8">
-        <v>4634324055</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4472,31 +4445,31 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4507,16 +4480,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4621224055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4527,7 +4500,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{61FB811C-853F-4787-BD98-EF1AAE77AEE0}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{518B1498-7CD6-41ED-9756-B2691A4FC40C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4538,15 +4511,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -4555,16 +4528,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4581,16 +4554,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4324524055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4604,7 +4577,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C02C9DBB-9C7D-41E5-92E0-828B02B7037C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F6F7BA4-4E08-4893-AD23-AB88243F9287}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4654,33 +4627,33 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4697,16 +4670,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4324324055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4720,7 +4693,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C953E137-0726-48F1-AEAA-5E4657B221BC}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A4FD6212-90A5-4C3B-A26F-DACE7A542D53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4730,16 +4703,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CF0F0-FF27-4B98-AE80-708D2DD33310}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -4756,16 +4729,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4806,16 +4779,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6666324055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4856,8 +4829,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{53208226-6C68-46B8-9FB3-69E02E8F0362}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{D03589B2-77BF-4B5D-9D6B-7D1A73FBAA41}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{D03589B2-77BF-4B5D-9D6B-7D1A73FBAA41}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FA6F3B3F-FFAA-4681-A7B4-A130B20507DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4868,15 +4841,15 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -4889,16 +4862,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4939,16 +4912,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6709824055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4989,8 +4962,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6981B4B-51F5-4874-8292-BA0AF9543D51}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{CDBD26A4-F9D5-4C16-AEA8-92B9AEEDCE56}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{CDBD26A4-F9D5-4C16-AEA8-92B9AEEDCE56}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{9A265D59-CCA1-456C-A8ED-CCEE2217474C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5036,13 +5009,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8">
         <v>4630987055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -5086,7 +5059,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -5120,15 +5093,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF5F809-C50B-464C-B347-F446AB1585F9}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5555,7 +5528,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6393,7 +6366,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6405,7 +6378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB28864-FAB7-4FB9-93DA-E8EDDE2121F5}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -6495,7 +6468,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6555,7 +6528,7 @@
         <v>36</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074534D6-4833-4EB6-80C8-A1AA70239FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C879A-9FC0-47AB-A3D6-018D05A588ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4668" windowWidth="17280" windowHeight="9960" firstSheet="58" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="2688" windowWidth="17280" windowHeight="9960" firstSheet="71" activeTab="71" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
     <sheet name="ProjectApprovInvalidRadius" sheetId="76" r:id="rId69"/>
     <sheet name="AssignProjectVendorData" sheetId="78" r:id="rId70"/>
     <sheet name="CreateProjectAssignVendor" sheetId="79" r:id="rId71"/>
+    <sheet name="JobApplicationVendorAcceptChamp" sheetId="80" r:id="rId72"/>
+    <sheet name="VendorLoginTest" sheetId="81" r:id="rId73"/>
+    <sheet name="JobApplicationVendorRejectChamp" sheetId="82" r:id="rId74"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -95,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="147">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -503,6 +506,39 @@
   </si>
   <si>
     <t>Dwayne</t>
+  </si>
+  <si>
+    <t>rohitsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>AdditionalTerms</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>EnterEmail</t>
+  </si>
+  <si>
+    <t>Assign Project To Vendor</t>
+  </si>
+  <si>
+    <t>VendorEmail</t>
+  </si>
+  <si>
+    <t>VendorOTP</t>
+  </si>
+  <si>
+    <t>ExpectedOutcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Project To Vendor </t>
   </si>
 </sst>
 </file>
@@ -512,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +617,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,12 +668,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -971,7 +1034,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2065,7 +2128,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2147,7 +2210,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2240,7 +2303,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2333,7 +2396,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2427,7 +2490,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2904,7 +2967,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3913,7 +3976,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="V1" sqref="V1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4114,7 +4177,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
@@ -4642,7 +4705,7 @@
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
@@ -5330,7 +5393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF5F809-C50B-464C-B347-F446AB1585F9}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -6351,7 +6414,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6379,7 +6442,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6534,6 +6597,548 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{23D92CA9-9CC1-4B19-B6D3-8CE7C8BC508E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E610-F2F0-4733-8B9B-4273B40725C2}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2">
+        <v>123456</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45534</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2">
+        <v>8376972313</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2">
+        <v>123456</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AA1:AB2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C709A1EE-64C3-418C-B44C-F820AF20129A}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{0FBB61E9-4EB9-436B-8B22-019DF03FD74A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018FA48-A8C8-498C-BD38-75302BEB5C90}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DAD56998-DF93-4E97-A7D6-2FF0222F0BA5}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E737C190-D983-49D0-AD05-FADFCFDF9EA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49773F7F-0874-49C9-AF89-9477015DE8FC}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2">
+        <v>123456</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45534</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2">
+        <v>8376972313</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2">
+        <v>123456</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AA1:AB2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F7E15DAF-7F55-4351-9DD8-18B9D491313D}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{02572273-C570-4EEF-A61D-13323DD235A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDF3C68-3838-4265-925F-63351B467494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D661E-5A47-488E-BF60-8742C40C3BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="26" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,24 @@
     <sheet name="addChamp_via_workOrder" sheetId="11" r:id="rId10"/>
     <sheet name="addChamp_via_ViewTask" sheetId="12" r:id="rId11"/>
     <sheet name="addChamp_via_dashBoard2" sheetId="14" r:id="rId12"/>
-    <sheet name="addChamp_via_dashBoard_Error" sheetId="15" r:id="rId13"/>
-    <sheet name="addChamp_via_workOrder_Error" sheetId="16" r:id="rId14"/>
-    <sheet name="addChamp_via_ViewTask_Error" sheetId="17" r:id="rId15"/>
-    <sheet name="addChamp_via_dashBoard2_Error" sheetId="18" r:id="rId16"/>
-    <sheet name="Withdraw_valid_Upi" sheetId="21" r:id="rId17"/>
-    <sheet name="Withdraw_valid_Bank" sheetId="22" r:id="rId18"/>
-    <sheet name="Withdraw_Invalid_Upi" sheetId="23" r:id="rId19"/>
-    <sheet name="Withdraw_Invalid_BankNumber" sheetId="24" r:id="rId20"/>
-    <sheet name="Withdraw_Invalid_BankNumber2" sheetId="25" r:id="rId21"/>
-    <sheet name="Withdraw_Invalid_IFSCcode" sheetId="26" r:id="rId22"/>
-    <sheet name="Withdraw_Short_IFSCcode" sheetId="27" r:id="rId23"/>
-    <sheet name="Withdraw_Invalid_Name" sheetId="30" r:id="rId24"/>
-    <sheet name="Withdraw_Short_Name" sheetId="31" r:id="rId25"/>
-    <sheet name="RequestCredit" sheetId="33" r:id="rId26"/>
-    <sheet name="TaskCredit" sheetId="34" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="36" r:id="rId13"/>
+    <sheet name="addChamp_via_dashBoard_Error" sheetId="15" r:id="rId14"/>
+    <sheet name="addChamp_via_workOrder_Error" sheetId="16" r:id="rId15"/>
+    <sheet name="addChamp_via_ViewTask_Error" sheetId="17" r:id="rId16"/>
+    <sheet name="addChamp_via_dashBoard2_Error" sheetId="18" r:id="rId17"/>
+    <sheet name="Withdraw_valid_Upi" sheetId="21" r:id="rId18"/>
+    <sheet name="Withdraw_valid_Bank" sheetId="22" r:id="rId19"/>
+    <sheet name="Withdraw_Invalid_Upi" sheetId="23" r:id="rId20"/>
+    <sheet name="Withdraw_Invalid_BankNumber" sheetId="24" r:id="rId21"/>
+    <sheet name="Withdraw_Invalid_BankNumber2" sheetId="25" r:id="rId22"/>
+    <sheet name="CreateworkorderPage" sheetId="35" r:id="rId23"/>
+    <sheet name="Withdraw_Invalid_IFSCcode" sheetId="26" r:id="rId24"/>
+    <sheet name="Withdraw_Short_IFSCcode" sheetId="27" r:id="rId25"/>
+    <sheet name="Withdraw_Invalid_Name" sheetId="30" r:id="rId26"/>
+    <sheet name="Withdraw_Short_Name" sheetId="31" r:id="rId27"/>
+    <sheet name="RequestCredit" sheetId="33" r:id="rId28"/>
+    <sheet name="TaskCredit" sheetId="34" r:id="rId29"/>
+    <sheet name="addChamp_WorkOrder_Vendor" sheetId="37" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -233,22 +236,43 @@
     <t>Invalid VPA. Please enter a valid Virtual Payment Address</t>
   </si>
   <si>
-    <t>Please enter valid account number</t>
-  </si>
-  <si>
     <t>Invalid IFSC Code in Bank Account</t>
   </si>
   <si>
     <t>The ifsc must be 11 characters.</t>
   </si>
   <si>
-    <t>Please enter valid account holder name</t>
-  </si>
-  <si>
     <t>The name must be between 3 and 120 characters.</t>
   </si>
   <si>
-    <t>Amount will receive to your bank account soon. . .</t>
+    <t>The account number format is invalid.</t>
+  </si>
+  <si>
+    <t>The name format is invalid.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>expectedSuccessmessage</t>
+  </si>
+  <si>
+    <t>Work order added successfully!</t>
+  </si>
+  <si>
+    <t>kitty</t>
+  </si>
+  <si>
+    <t>08/30/2024</t>
+  </si>
+  <si>
+    <t>virgil.dirk@dockstones.com</t>
+  </si>
+  <si>
+    <t>kasubf374</t>
   </si>
 </sst>
 </file>
@@ -639,10 +663,63 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB04788-F2AA-48AC-9845-332224957FD6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>9200549210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89CEAEE-C2F7-4169-8392-080908B37DBD}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,12 +742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89CEAEE-C2F7-4169-8392-080908B37DBD}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7593BD91-A25E-4B84-BB2E-B3EA0B393644}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,35 +770,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7593BD91-A25E-4B84-BB2E-B3EA0B393644}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9A4550-9668-4E46-BADA-4A66B7C9AE88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AB48DE-8D73-4307-BB97-8607CEEC1768}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -749,7 +810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F275F6-97A7-4E8E-9D70-835F9D22710E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -777,7 +838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD96149-6A7E-4735-9024-63AF7B287546}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -805,7 +866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DED200-7E23-45CA-8D5A-0B2480557A3F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -833,12 +894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D10E0-4481-4EF3-8BAD-5AD6EADFA26A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,12 +987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38D1885-FF36-4CE0-9730-9534EAF02835}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="M12" activeCellId="1" sqref="J18 M12"/>
+    <sheetView topLeftCell="F1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1090,7 @@
         <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1103,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB981E43-EC92-4082-87A8-F886F963D720}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>1234567893</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F1433BDC-8099-4DA1-82C9-B6615CB333D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0207F3-3648-4B2F-87B0-F1F1EFAE37D6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1108,77 +1234,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB981E43-EC92-4082-87A8-F886F963D720}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2">
-        <v>1234567893</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F1433BDC-8099-4DA1-82C9-B6615CB333D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD465F8-8ADD-4DD5-8207-7DD7D91A0BEC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1309,7 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1262,12 +1323,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F49695-C608-495A-9A3F-104B112DA8D3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,7 +1404,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2615BA-CA24-4868-A76E-5A8928E92239}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957984E-7AB4-43A3-AB84-00D64A6741AE}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1418,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BD5CCB-EBB4-4F8B-8CC6-C722CE447543}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1505,7 +1606,7 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1517,12 +1618,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E09231-894F-4013-958B-2394E3F65C3E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC381A8-2269-464B-9A08-7730A794A532}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1679,7 +1780,7 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E002A3-5062-4DD2-99EA-9D8EE82F45C2}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1765,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2C054-F8FC-44A2-9B7D-23EF641C826F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1843,7 +1944,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,6 +1980,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8381F63D-B8F2-4ADD-8781-C5928866CB0E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B00CAF42-82E2-42EC-BDD9-211683D2ECF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C67350F-77ED-4FAF-B015-906CD252BB8E}">
   <dimension ref="A1:C3"/>
@@ -2065,26 +2221,51 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0AA793-B14F-4E74-AA45-5E570B464B83}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>9200549210</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C879A-9FC0-47AB-A3D6-018D05A588ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B2064-29E2-4093-A465-110A39157498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="2688" windowWidth="17280" windowHeight="9960" firstSheet="71" activeTab="71" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1980" windowWidth="17280" windowHeight="9960" firstSheet="51" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="140">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -379,30 +379,6 @@
     <t>Please select a valid end time</t>
   </si>
   <si>
-    <t>Ronaldino</t>
-  </si>
-  <si>
-    <t>ce7@gmail.com</t>
-  </si>
-  <si>
-    <t>Messi10</t>
-  </si>
-  <si>
-    <t>1010@gmail.com</t>
-  </si>
-  <si>
-    <t>NoOneLie</t>
-  </si>
-  <si>
-    <t>tester1212121212@gmail.com</t>
-  </si>
-  <si>
-    <t>rsrx71234</t>
-  </si>
-  <si>
-    <t>rtyehsgd@gmail.com</t>
-  </si>
-  <si>
     <t>Please select enterprise</t>
   </si>
   <si>
@@ -415,9 +391,6 @@
     <t>test@agency.com</t>
   </si>
   <si>
-    <t>fgdgfjd</t>
-  </si>
-  <si>
     <t>ankur@gmail.com</t>
   </si>
   <si>
@@ -539,6 +512,12 @@
   </si>
   <si>
     <t xml:space="preserve">Assign Project To Vendor </t>
+  </si>
+  <si>
+    <t>Field Name is required.</t>
+  </si>
+  <si>
+    <t>expectedErrorMessage</t>
   </si>
 </sst>
 </file>
@@ -548,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +602,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -645,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -669,6 +654,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1056,7 +1042,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -2155,10 +2141,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2167,10 +2153,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2181,16 +2167,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2199,13 +2185,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2248,10 +2234,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2260,10 +2246,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2274,16 +2260,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2292,13 +2278,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2341,10 +2327,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2353,10 +2339,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2367,16 +2353,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2385,13 +2371,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2435,10 +2421,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2447,10 +2433,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2461,16 +2447,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2479,13 +2465,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2585,45 +2571,45 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
+      <c r="D1" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
-        <v>9722288802</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -2631,7 +2617,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED0FD01D-8005-485E-B0EE-ED55D2B3A554}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8DEA92D1-C140-4050-B42E-3D1B691A34ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2773,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2832,7 +2818,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3122,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3166,20 +3152,20 @@
     <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3237,20 +3223,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5555456522</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3310,8 +3296,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6EAD9221-B9F7-4BAB-B6CA-D76533E11CA0}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{193301C6-69C5-44D8-92FC-E9F15BDD04ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3322,53 +3308,53 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8765234156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3377,7 +3363,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A1B9C375-893B-496D-8CB7-A9D2BF4EBF66}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{401F5E3F-16A2-414B-8569-62DCC9A3D8B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3388,35 +3374,35 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3429,20 +3415,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8765234156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G2" t="s">
@@ -3454,7 +3440,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F81D102B-E469-4B5E-86E7-6F5F3519B13D}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C36756F2-4C4F-4AD8-8458-7E10AE15F4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3493,35 +3479,35 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3534,20 +3520,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8765234156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3559,7 +3545,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB8A6D92-BFEC-4360-91B0-B5AF4E529121}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{387EEAD5-3D7E-43DD-920D-0AC084E1D53B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3575,11 +3561,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -3593,20 +3579,20 @@
     <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3643,20 +3629,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="5">
-        <v>6547832546</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3686,14 +3672,14 @@
       <c r="O2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
-        <v>60</v>
+      <c r="P2" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{42B6F9F3-12E3-4B83-9818-8CE5C14DBB5B}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{BD8A9202-DBEF-469B-8D80-0FAB82461947}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3709,11 +3695,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -3725,20 +3711,20 @@
     <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3775,20 +3761,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="5">
-        <v>6547832546</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3827,8 +3813,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3B6BB931-27D5-44FA-A3D8-B7051903985F}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5313A187-D085-450A-885F-1231197AFA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3839,16 +3825,16 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -3862,20 +3848,20 @@
     <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3912,20 +3898,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4678909876</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3964,8 +3950,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{21146BA0-94DE-4361-93D2-DB02D52D3896}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{941A99E7-77A3-445B-8B97-A903FDD61B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4065,10 +4051,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="T1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -4086,15 +4072,15 @@
         <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AA1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4148,10 +4134,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -4160,19 +4146,19 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +4193,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4219,8 +4205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4257,16 +4243,16 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4329,27 +4315,27 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8">
         <v>8756457685</v>
@@ -4361,7 +4347,7 @@
         <v>123456</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
@@ -4415,16 +4401,16 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Z2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA2">
         <v>123456</v>
       </c>
       <c r="AB2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4456,33 +4442,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4491,7 +4477,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4523,16 +4509,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4543,13 +4529,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4591,16 +4577,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4617,13 +4603,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4707,16 +4693,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4733,13 +4719,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4792,16 +4778,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4842,13 +4828,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4904,7 +4890,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4925,16 +4911,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4975,13 +4961,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -5036,63 +5022,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4630987055</v>
+        <v>125</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2988EF84-86B6-4AD8-8A30-5886BFD5135F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{706DB0F4-98A9-4693-B98D-024DEA89811B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5122,7 +5108,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -5156,15 +5142,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6415,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6526,12 +6512,12 @@
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6591,7 +6577,7 @@
         <v>36</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6606,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E610-F2F0-4733-8B9B-4273B40725C2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
@@ -6698,7 +6684,7 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
@@ -6707,16 +6693,16 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="W1" t="s">
         <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Z1" t="s">
         <v>62</v>
@@ -6731,18 +6717,18 @@
         <v>61</v>
       </c>
       <c r="AD1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AE1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6796,10 +6782,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -6808,13 +6794,13 @@
         <v>1000</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="X2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z2">
         <v>123456</v>
@@ -6823,19 +6809,19 @@
         <v>45534</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AC2">
         <v>8376972313</v>
       </c>
       <c r="AD2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AE2">
         <v>123456</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6880,7 +6866,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -6992,7 +6978,7 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
@@ -7001,16 +6987,16 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="W1" t="s">
         <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Z1" t="s">
         <v>62</v>
@@ -7025,18 +7011,18 @@
         <v>61</v>
       </c>
       <c r="AD1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AE1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -7090,10 +7076,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -7102,13 +7088,13 @@
         <v>1000</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="X2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z2">
         <v>123456</v>
@@ -7117,19 +7103,19 @@
         <v>45534</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AC2">
         <v>8376972313</v>
       </c>
       <c r="AD2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AE2">
         <v>123456</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B2064-29E2-4093-A465-110A39157498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48E55D-7BD6-4EC0-9C18-0447AB832444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1980" windowWidth="17280" windowHeight="9960" firstSheet="51" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="2688" windowWidth="17280" windowHeight="9960" firstSheet="52" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="143">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>expectedErrorMessage</t>
+  </si>
+  <si>
+    <t>vendorphororEmail</t>
+  </si>
+  <si>
+    <t>vendorphoneOrEmail</t>
+  </si>
+  <si>
+    <t>RevievedOTP</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1029,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2111,373 +2120,473 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="6">
+      <c r="L2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
     <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{172248EE-0843-426A-874E-500A1DEBF1CB}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C3FFB126-F9CA-414E-907C-BE59E5D6384E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="6">
+      <c r="L2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{020BD987-64F9-4FE0-946E-6FB8897A5187}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{83F6A237-F36B-4407-8269-A56633592F8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F368873F-9933-47D9-A686-B824060F8288}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C63DACCC-219C-46FE-A468-6C53730BA008}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2230EB56-002D-48BD-B78B-30A96E6B9FBF}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E19BF313-186D-4482-97A5-83BBB3A0470F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2568,56 +2677,79 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8AB26-0B61-4C59-8DDA-093F26B52844}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8DEA92D1-C140-4050-B42E-3D1B691A34ED}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8DEA92D1-C140-4050-B42E-3D1B691A34ED}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A8EF905E-F611-43EE-840D-D64B063D19CE}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{3640B226-F458-4AD9-87CC-F54474F92D2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2625,56 +2757,79 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503DC47-B116-4D17-AE19-50721CC0959C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{EB25548C-F2B1-4C83-B78C-C1BCF9C8EE4E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{B31D0AA3-ED25-4D27-A95B-4692210A7030}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2831,54 +2986,79 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5">
+      <c r="E2" s="5">
         <v>8828888221</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{41D40592-183A-4E14-A3BB-1F6919B3A0F9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{2213CCC3-5256-46EE-8887-7EF14BB2CD7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3119,185 +3299,208 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C52D7E-DA4B-4987-81FF-4F055ABBBFD8}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="P2" s="2">
         <v>45537</v>
       </c>
-      <c r="N2" s="2">
+      <c r="Q2" s="2">
         <v>45545</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>27</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>50000</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{193301C6-69C5-44D8-92FC-E9F15BDD04ED}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{193301C6-69C5-44D8-92FC-E9F15BDD04ED}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{78324BAA-7AB1-48C4-A4C7-BAA8DA51FA44}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{E7C59F5E-DA0D-4207-98C1-08FD1EB6F6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3305,65 +3508,88 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{401F5E3F-16A2-414B-8569-62DCC9A3D8B7}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{401F5E3F-16A2-414B-8569-62DCC9A3D8B7}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{7F107BAE-62BB-4AE2-ABF0-6B678488368F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{1B0A52E8-DE90-4C0F-8E82-A7D7BBA969FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3371,76 +3597,99 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0834A119-F09C-48DA-8867-7EB5777391E7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C36756F2-4C4F-4AD8-8458-7E10AE15F4EC}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C36756F2-4C4F-4AD8-8458-7E10AE15F4EC}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D687A2C1-CFF7-44A2-B644-30CC430D83B8}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{E0FC454E-98D5-4748-8B4A-6E0ECF751BB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3476,76 +3725,99 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39026464-7D8D-41F2-BDDB-85661F9F3AE1}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{387EEAD5-3D7E-43DD-920D-0AC084E1D53B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{387EEAD5-3D7E-43DD-920D-0AC084E1D53B}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{06DD7481-D730-452D-8A0D-A46C34DAE660}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{8842F99C-5915-42BF-AD2B-E9717C7A842A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3553,133 +3825,156 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAFF7CB-EE50-4142-8865-333ED5F466FF}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>50</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{BD8A9202-DBEF-469B-8D80-0FAB82461947}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{BD8A9202-DBEF-469B-8D80-0FAB82461947}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{F6FC576F-91F4-4956-8F26-FA731E8A0E3A}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{0F19FC7B-C627-4CCE-A99D-0D9FB7E1D90A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3687,134 +3982,157 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76D7EC-F434-4638-ABDC-C5C74F9D35AE}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5313A187-D085-450A-885F-1231197AFA0A}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{5313A187-D085-450A-885F-1231197AFA0A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{FD270866-9F7F-4323-8107-F0A9060B2D6A}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{5B9AF754-3D85-456D-8F6A-E1F1A1ACA0E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3822,136 +4140,159 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA73E5F2-1FE0-463D-A024-831C739601AA}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{941A99E7-77A3-445B-8B97-A903FDD61B90}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{941A99E7-77A3-445B-8B97-A903FDD61B90}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{C1915708-3F44-4440-A47A-F94C1DE1639B}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{78B43801-A2F8-4CE5-9C25-07666B9F6202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5020,65 +5361,88 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="8">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>9810995544</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{706DB0F4-98A9-4693-B98D-024DEA89811B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{706DB0F4-98A9-4693-B98D-024DEA89811B}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:test@agency.com" display="mailto:test@agency.com" xr:uid="{D9D036CD-BB47-4509-8C8D-78E767EB3EC7}"/>
+    <hyperlink ref="C2" r:id="rId3" tooltip="https://demo.workorbits.com/dashboard/ongoing" xr:uid="{A2AA28C0-AD62-409F-BF25-CABBFD3FF88A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6590,247 +6954,270 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E610-F2F0-4733-8B9B-4273B40725C2}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>94</v>
       </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="V1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>112233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45537</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45545</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>50000</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>123456</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>1000</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>123456</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AD2" s="3">
         <v>45534</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>8376972313</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>127</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <v>123456</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AI2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA1:AB2">
+  <conditionalFormatting sqref="AD1:AE2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C709A1EE-64C3-418C-B44C-F820AF20129A}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{0FBB61E9-4EB9-436B-8B22-019DF03FD74A}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C709A1EE-64C3-418C-B44C-F820AF20129A}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{0FBB61E9-4EB9-436B-8B22-019DF03FD74A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{DD5AE0E5-F59B-4D17-B83E-D1DCE28D4F20}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{7DC7749B-B3F7-4EB8-8D32-1F2662E27E9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6841,7 +7228,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6887,244 +7274,260 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49773F7F-0874-49C9-AF89-9477015DE8FC}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>128</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>112233</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>45537</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>45545</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>50000</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>123456</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1000</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>123456</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AC2" s="3">
         <v>45534</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>8376972313</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>127</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>123456</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA1:AB2">
+  <conditionalFormatting sqref="AC1:AD2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{F7E15DAF-7F55-4351-9DD8-18B9D491313D}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{02572273-C570-4EEF-A61D-13323DD235A7}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{F7E15DAF-7F55-4351-9DD8-18B9D491313D}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{02572273-C570-4EEF-A61D-13323DD235A7}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{97845194-0B14-40FD-A6CB-6DCB0989C008}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{AF1DDD1A-0CF7-4AF7-B4FD-EC0161573703}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\eclipse-workspace\Test\AutomationProject\Apptad-AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8EE4AC-E489-465A-B45F-5E23A0123337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD98AC15-4BAD-40E8-8554-6C223F83F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="92" activeTab="92" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5424" yWindow="3540" windowWidth="17280" windowHeight="9960" firstSheet="147" activeTab="148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -159,6 +159,16 @@
     <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId144"/>
     <sheet name="validation_On_InvalidPassword" sheetId="151" r:id="rId145"/>
     <sheet name="validation_On_EmptyEmailPh" sheetId="152" r:id="rId146"/>
+    <sheet name="CreateWorkorderforCientsAgency" sheetId="183" r:id="rId147"/>
+    <sheet name="ClientProjectWorkorder" sheetId="184" r:id="rId148"/>
+    <sheet name="ClientProjectWorkorderApproval" sheetId="193" r:id="rId149"/>
+    <sheet name="CreateWorkorderInvalidStartTime" sheetId="185" r:id="rId150"/>
+    <sheet name="CreateWorkorderInvalidEndTime" sheetId="186" r:id="rId151"/>
+    <sheet name="CreateWorkorderInvalidLocation" sheetId="188" r:id="rId152"/>
+    <sheet name="CreateWorkorderInvalidDate" sheetId="189" r:id="rId153"/>
+    <sheet name="CreateWorkorderNameError" sheetId="190" r:id="rId154"/>
+    <sheet name="CreateWorkorderPhoneError" sheetId="191" r:id="rId155"/>
+    <sheet name="CreateWorkorderEmailError" sheetId="192" r:id="rId156"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="265">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -955,6 +965,18 @@
   </si>
   <si>
     <t>Please enter valid company name</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>EnterpriseEmail</t>
+  </si>
+  <si>
+    <t>ExpectedMessageResult</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -962,8 +984,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1129,9 +1151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1163,7 +1185,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1746,20 +1798,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1840,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="28.8">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1835,28 +1887,28 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1991,24 +2043,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2129,10 +2181,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2164,12 +2216,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2232,14 +2284,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2299,14 +2351,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2347,10 +2399,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2382,10 +2434,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2417,13 +2469,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2476,13 +2528,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2535,14 +2587,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2601,30 +2653,30 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2761,12 +2813,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2825,12 +2877,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2889,13 +2941,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2954,11 +3006,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3000,10 +3052,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3044,10 +3096,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3088,10 +3140,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3132,11 +3184,11 @@
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3153,7 +3205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3183,11 +3235,11 @@
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3204,7 +3256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3234,14 +3286,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3267,7 +3319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3292,7 +3344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
@@ -3309,39 +3361,39 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -3560,7 +3612,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD1:AE2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2E23724F-9C7E-492A-9416-5F0DDA676034}"/>
@@ -3580,10 +3632,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3624,11 +3676,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3676,11 +3728,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3727,12 +3779,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3779,13 +3831,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3844,13 +3896,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3909,13 +3961,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3974,14 +4026,14 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4047,14 +4099,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4119,10 +4171,10 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4151,35 +4203,35 @@
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -4392,7 +4444,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC1:AD2">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0BFAE797-9CB7-4402-8F87-D60F6640FF10}"/>
@@ -4412,10 +4464,10 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4447,10 +4499,10 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4482,11 +4534,11 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4524,10 +4576,10 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4571,13 +4623,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4627,10 +4679,10 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4672,11 +4724,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4718,11 +4770,11 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4764,11 +4816,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4858,10 +4910,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4894,23 +4946,23 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +5003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -4994,7 +5046,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{844409B9-4518-416E-88B9-E71A345CFB12}"/>
@@ -5012,11 +5064,11 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5065,9 +5117,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5093,11 +5145,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5139,10 +5191,10 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5184,10 +5236,10 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5235,10 +5287,10 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5280,9 +5332,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5300,6 +5352,619 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48A861-780C-4698-A363-2B5965E5FBDF}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:F2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D8729A09-0592-4A14-9550-D4078BDE0145}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6620C9-B542-4A79-900B-A03AAE03CBE7}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection sqref="A1:AJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8756457685</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="10">
+        <v>112233</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="10">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12">
+        <v>45537</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>45545</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="10">
+        <v>10</v>
+      </c>
+      <c r="T2" s="10">
+        <v>50</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="10">
+        <v>50000</v>
+      </c>
+      <c r="X2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2">
+        <v>123456</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AE1:AG2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{79EEEF3E-4ED6-432F-B6CA-AC81BEC9534C}"/>
+    <hyperlink ref="M2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{B7B59B78-688B-4827-B3E7-C05003B8C24A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{26F9F0D4-837C-45E7-B0AE-5CA32677E4A1}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{96C78857-1FD7-4C2F-AD6F-8C5C2800A529}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6E707-CBE9-4EC6-94BE-F1EEE72A82AF}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="43.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="72">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8756457685</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="10">
+        <v>112233</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="10">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12">
+        <v>45537</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>45545</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="10">
+        <v>10</v>
+      </c>
+      <c r="T2" s="10">
+        <v>50</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="10">
+        <v>50000</v>
+      </c>
+      <c r="X2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2">
+        <v>123456</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AE1:AG2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BD801DDD-B84A-4786-A6D0-0EB1217C2202}"/>
+    <hyperlink ref="M2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{0225A0F0-1A32-43FF-BEE7-8F67EE9B68C3}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{A04061A9-AA68-4447-BC8B-9707F05866B6}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{9BF52812-B354-4801-8970-FB60FC96D746}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F7D4D-F35A-4A50-9122-58E813A1D08A}">
   <dimension ref="A1:M2"/>
@@ -5308,23 +5973,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5365,7 +6030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5408,7 +6073,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{09430D94-2145-44CA-9915-005A517E8C23}"/>
@@ -5418,6 +6083,502 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2FD1A-96F9-4A9F-BD41-8718E7C75A1E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E010AC38-8142-4B38-AC8F-AF0859F93AB3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A021381-1600-4587-AB3E-9194ACD74F26}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D57805C-3CD8-45B7-9211-F59F73E8A590}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{03A1E932-EDC9-4782-B35F-6311E1281EF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3063C8-BEEC-49DE-8651-8F0D0B0319C5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB1A4FB9-522D-48E9-826E-4F521AE7D7B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA34E1D-C2B3-48EE-A752-698F37E8B93B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F3854BEA-4DF9-494A-AEB1-77A85C3F22A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA20B3-923D-47B4-BE65-2AD25F78AC64}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>9722288802</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{EB96D99A-1D6D-4786-A05B-6A72F8CDA91E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{67529089-0712-46BC-9724-90A2086CB856}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{14689D84-CE81-4569-A31D-8AFFB9AF491E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF3A06E-9CCE-427D-BB59-9A250BE03651}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F9D1842-CD4D-49EC-95DE-1CE20854C8E0}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C9FE4410-7E2C-4F41-8BEA-FBA4F10E43D0}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C5C076E5-52E9-4866-A510-B2597AA7192B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C740F3D-6269-464F-8D99-1FB1178DC0F5}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="9">
+        <v>8828888221</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5D2C2544-D0AD-44B7-8704-59E2DD04F0EA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{16A94B98-25C5-4FD0-8582-7BBF3BC7E0D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE43C135-7B06-42FD-95AB-6750E7B25159}">
   <dimension ref="A1:M2"/>
@@ -5426,23 +6587,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5483,7 +6644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5526,7 +6687,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BE94A0D7-0410-452E-9BE2-20E4DF1AFF22}"/>
@@ -5544,23 +6705,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5601,7 +6762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5644,7 +6805,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14FC3AB9-B453-46CA-863D-33761C323DDC}"/>
@@ -5663,17 +6824,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>222</v>
       </c>
@@ -5693,7 +6854,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="20" t="s">
         <v>218</v>
       </c>
@@ -5715,10 +6876,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0A9FF332-F266-4F06-BD9A-1772A62329B6}"/>
@@ -5735,17 +6896,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>222</v>
       </c>
@@ -5765,7 +6926,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="20" t="s">
         <v>218</v>
       </c>
@@ -5787,13 +6948,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E2">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{57223C36-ABF7-4C5E-972E-0360280AE7A2}"/>
@@ -5807,22 +6968,22 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="D1" sqref="D1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +7009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5890,12 +7051,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5948,13 +7109,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6004,26 +7165,26 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6192,12 +7353,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6245,11 +7406,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6298,14 +7459,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6362,11 +7523,11 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6423,19 +7584,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6541,22 +7702,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6665,22 +7826,22 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6785,23 +7946,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B2F62-F132-4E89-9F4A-75FB8FD53BCD}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6811,23 +7972,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -6837,15 +7998,15 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>165</v>
+      <c r="D2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="10">
+        <v>8756457685</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -6853,9 +8014,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5733ADE3-B912-444B-A1A1-43EA7A2EDC6A}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{211DBFC5-67C6-4EEA-B8F4-8E62547F79E9}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{6F55339C-262A-4959-AF59-3FE45451C2DF}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{211DBFC5-67C6-4EEA-B8F4-8E62547F79E9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6F55339C-262A-4959-AF59-3FE45451C2DF}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{288BE2E1-1AFC-4675-963D-18FF25748728}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6865,41 +8026,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440E1FB-2C78-4BD0-BE8F-157B06AF33D6}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="18">
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -6982,7 +8143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75">
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -7067,7 +8228,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{608C7CC8-F075-4A70-BD0C-9C5F01AE4F00}"/>
@@ -7085,12 +8246,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7139,15 +8300,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7216,20 +8377,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0A80E8-4C3C-4F95-B00E-FD8CBCF9E712}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7296,20 +8457,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BD1B37-7E9F-4BB0-AB9B-2424A33E7C61}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7376,20 +8537,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8996105-C10F-48B5-B3E2-C75B176AA833}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7456,17 +8617,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7491,7 +8652,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7511,11 +8672,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A48CA74E-2140-410C-8B8C-C72C135C45F1}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{C29BB4E8-D791-4E75-A159-A6681271ABE8}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C29BB4E8-D791-4E75-A159-A6681271ABE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7529,13 +8689,13 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7560,7 +8720,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7580,8 +8740,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{221C7F29-FB7B-4BF4-8275-C49EF2C1B379}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D552B5AB-1A9D-4BD9-8C9A-C0CA4E6414BB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D552B5AB-1A9D-4BD9-8C9A-C0CA4E6414BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7592,14 +8751,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7624,7 +8784,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7641,8 +8801,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B075978B-5F14-4568-B1DA-5543A369B8D5}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{B8EB906E-100B-4C1A-9F8D-A31FFE175785}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B8EB906E-100B-4C1A-9F8D-A31FFE175785}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7653,14 +8812,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7685,7 +8847,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7702,8 +8864,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C45DDA33-6279-4848-96B2-ADEE0CEB2117}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{DF39D5B9-EA73-40C3-B1EF-1DA9264F3A7F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF39D5B9-EA73-40C3-B1EF-1DA9264F3A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7714,22 +8875,22 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7739,23 +8900,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -7765,15 +8926,15 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="21">
-        <v>8828888221</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="21" t="s">
-        <v>165</v>
+      <c r="D2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
+        <v>8756457685</v>
       </c>
       <c r="H2" t="s">
         <v>55</v>
@@ -7793,13 +8954,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+      <selection activeCell="D12" sqref="C11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7824,7 +8986,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7852,43 +9014,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6AEB6D-6BCD-4D15-B868-8FB12382B1F9}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="30">
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7980,7 +9142,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="30">
+    <row r="2" spans="1:30" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8091,19 +9253,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8132,7 +9294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8179,15 +9341,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -8221,7 +9383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8267,21 +9429,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8316,7 +9478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8365,22 +9527,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +9577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8464,29 +9626,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8545,7 +9707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8622,25 +9784,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8699,7 +9861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8776,27 +9938,27 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8940,10 +10102,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8982,37 +10144,37 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9092,7 +10254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -9191,13 +10353,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9244,21 +10406,21 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9360,19 +10522,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9461,20 +10623,20 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9575,21 +10737,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9690,13 +10852,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9743,12 +10905,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9796,13 +10958,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9862,13 +11024,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9928,14 +11090,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9992,20 +11154,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10034,7 +11196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -10081,12 +11243,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10135,12 +11297,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10189,12 +11351,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10243,14 +11405,14 @@
       <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10301,10 +11463,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{42855C14-FC85-4C1C-AB4D-7250C8919402}"/>
@@ -10322,14 +11484,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10380,10 +11542,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD5D74A-9765-48B8-AC31-50E848625BC3}"/>
@@ -10401,14 +11563,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10459,10 +11621,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{05C1878F-C482-4723-8A0A-0F5B4B980DA8}"/>
@@ -10480,14 +11642,14 @@
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10538,10 +11700,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B3BB0B30-9B36-4021-9B97-7B125847F859}"/>
@@ -10559,14 +11721,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10617,10 +11779,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{46346B06-5FDD-43E4-AA51-EA93781CBE3F}"/>
@@ -10638,14 +11800,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10696,10 +11858,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
@@ -10717,14 +11879,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10775,10 +11937,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
@@ -10796,22 +11958,22 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +12008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -10896,14 +12058,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10954,10 +12116,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AF23535F-A70C-407A-BB87-F15913EFEB88}"/>
@@ -10975,16 +12137,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11068,20 +12230,20 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="47.5703125" customWidth="1"/>
+    <col min="13" max="13" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11184,13 +12346,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11250,15 +12412,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11339,16 +12501,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11420,16 +12582,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11507,16 +12669,16 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11625,16 +12787,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11712,16 +12874,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11799,22 +12961,22 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11849,7 +13011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -11899,14 +13061,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11972,14 +13134,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12045,12 +13207,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12123,12 +13285,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12175,26 +13337,26 @@
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -12262,7 +13424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30">
+    <row r="2" spans="1:21" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12345,12 +13507,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12398,14 +13560,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12462,22 +13624,22 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -12587,21 +13749,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12699,22 +13861,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -12823,30 +13985,30 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12905,7 +14067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -12980,22 +14142,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13104,14 +14266,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13168,30 +14330,30 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -13363,33 +14525,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EE7AF-96C6-4B6B-BF97-DB046463D90C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -13552,12 +14714,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13605,14 +14767,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13669,14 +14831,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13733,22 +14895,22 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13857,22 +15019,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13981,22 +15143,22 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD98AC15-4BAD-40E8-8554-6C223F83F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A9CCC-7A46-4C27-9557-D0A727778F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="3540" windowWidth="17280" windowHeight="9960" firstSheet="147" activeTab="148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="1632" windowWidth="17280" windowHeight="9960" firstSheet="164" activeTab="165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -169,6 +169,16 @@
     <sheet name="CreateWorkorderNameError" sheetId="190" r:id="rId154"/>
     <sheet name="CreateWorkorderPhoneError" sheetId="191" r:id="rId155"/>
     <sheet name="CreateWorkorderEmailError" sheetId="192" r:id="rId156"/>
+    <sheet name="WorkOrderApprovalEnterprise" sheetId="195" r:id="rId157"/>
+    <sheet name="InvalidFieldNameWorkorder" sheetId="196" r:id="rId158"/>
+    <sheet name="InvalidFrequencyWorkorder" sheetId="197" r:id="rId159"/>
+    <sheet name="InvalidRadiusWorkorder" sheetId="198" r:id="rId160"/>
+    <sheet name="InvalidQuoteWorkorder" sheetId="199" r:id="rId161"/>
+    <sheet name="InvalidTermsWorkorder" sheetId="200" r:id="rId162"/>
+    <sheet name="InvalidLocationWorkorder" sheetId="201" r:id="rId163"/>
+    <sheet name="InvalidDateWorkorder" sheetId="202" r:id="rId164"/>
+    <sheet name="InvalidStarttimeWorkorder" sheetId="203" r:id="rId165"/>
+    <sheet name="InvalidEndtimeWorkorder" sheetId="204" r:id="rId166"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="268">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -977,6 +987,15 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>Please select valid quote valid till</t>
+  </si>
+  <si>
+    <t>Please enter valid terms</t>
+  </si>
+  <si>
+    <t>ExpectedtermsResult</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1006,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,6 +1140,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1143,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1180,12 +1204,63 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3344,7 +3419,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
@@ -3612,7 +3687,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD1:AE2">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2E23724F-9C7E-492A-9416-5F0DDA676034}"/>
@@ -4444,7 +4519,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC1:AD2">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0BFAE797-9CB7-4402-8F87-D60F6640FF10}"/>
@@ -5046,7 +5121,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{844409B9-4518-416E-88B9-E71A345CFB12}"/>
@@ -5433,7 +5508,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D8729A09-0592-4A14-9550-D4078BDE0145}"/>
@@ -5706,7 +5781,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE1:AG2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{79EEEF3E-4ED6-432F-B6CA-AC81BEC9534C}"/>
@@ -5722,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6E707-CBE9-4EC6-94BE-F1EEE72A82AF}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -5953,7 +6028,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE1:AG2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{BD801DDD-B84A-4786-A6D0-0EB1217C2202}"/>
@@ -6073,7 +6148,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{09430D94-2145-44CA-9915-005A517E8C23}"/>
@@ -6579,6 +6654,452 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F0B2F4-047B-4272-BBC7-EB74B3867E5F}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.6">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2" s="16">
+        <v>45534</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8EFD11BE-7842-4001-BF06-9E2A03A215BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D972AD-E594-49FA-8899-3B7257EB8B2F}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>112233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{A9FAAD29-6507-42A5-8A59-FB1D9F4D0C1D}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D10033B4-6E81-48A2-9585-95B4DA24711B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D9E835-1CF7-4778-AEF6-31C21134834F}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>112233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E2F51A3C-1D70-4B20-8382-8DAB0621B6AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE43C135-7B06-42FD-95AB-6750E7B25159}">
   <dimension ref="A1:M2"/>
@@ -6687,11 +7208,1179 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BE94A0D7-0410-452E-9BE2-20E4DF1AFF22}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{C31A25F6-8FE9-4140-AA5F-7A642F089A43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16363CA8-BBF5-417B-B68D-D6CC27B45294}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>112233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{FDBE5125-FCE3-47FC-BE8C-4BB34E0A06EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98210AC1-DFFE-49EB-A969-54F58EDEF08C}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{F3249203-384F-429B-8A94-1BB1B82C4F14}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{ACC94EC6-13BA-4EFB-B230-A92208030638}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{2CECCC39-9F8C-467C-915D-D759F9C9BA5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE567E-2364-4F64-B743-9361C4C31C66}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1133929E-1BCD-4A53-8E67-E566F5BA844C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A7EAB2A6-4EAD-4C13-A171-5BBF6549BC7A}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{3047D12D-7AC5-4F87-8BDA-59EE4B814E04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F552DD-4358-4113-8E23-30B554DB9E0F}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E40B2F07-6B5B-4069-B6D8-6BF264DB2927}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665E3AA7-CFE3-4CD1-9607-6424F9CB5837}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{65A2EF95-BD55-41A9-9797-CF10D01B74B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612362F-1EE6-45A1-BCEE-CE2608F6720E}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AAE3F4FE-CA33-4EA9-9CB2-B49F515725F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360695DF-45A8-4981-840F-BD8B6D207950}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{52770C70-9CEB-4C36-8D40-DB314A2BBBBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6805,7 +8494,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14FC3AB9-B453-46CA-863D-33761C323DDC}"/>
@@ -6876,10 +8565,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0A9FF332-F266-4F06-BD9A-1772A62329B6}"/>
@@ -6948,13 +8637,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E2">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{57223C36-ABF7-4C5E-972E-0360280AE7A2}"/>
@@ -7161,8 +8850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA97BF87-4E2F-43C5-8890-D5F49A3A337E}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8026,8 +9715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440E1FB-2C78-4BD0-BE8F-157B06AF33D6}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AA2"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8228,7 +9917,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{608C7CC8-F075-4A70-BD0C-9C5F01AE4F00}"/>
@@ -8672,7 +10361,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C29BB4E8-D791-4E75-A159-A6681271ABE8}"/>
@@ -8686,7 +10375,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8751,12 +10440,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="F2" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -8812,7 +10502,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8954,12 +10644,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="C11:D12"/>
+      <selection activeCell="D1" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10403,7 +12094,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B1" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10619,8 +12310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE2FE2E-7F9A-4BD7-AF17-BD45E0B98CA5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10733,8 +12424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06398D3B-89DE-48F0-AA63-A392FFB90D4F}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11463,10 +13154,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{42855C14-FC85-4C1C-AB4D-7250C8919402}"/>
@@ -11542,10 +13233,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD5D74A-9765-48B8-AC31-50E848625BC3}"/>
@@ -11621,10 +13312,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{05C1878F-C482-4723-8A0A-0F5B4B980DA8}"/>
@@ -11700,10 +13391,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B3BB0B30-9B36-4021-9B97-7B125847F859}"/>
@@ -11779,10 +13470,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{46346B06-5FDD-43E4-AA51-EA93781CBE3F}"/>
@@ -11858,10 +13549,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
@@ -11937,10 +13628,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
@@ -12116,10 +13807,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AF23535F-A70C-407A-BB87-F15913EFEB88}"/>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A9CCC-7A46-4C27-9557-D0A727778F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40374F-8751-4507-8F68-325E0AF85E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="1632" windowWidth="17280" windowHeight="9960" firstSheet="164" activeTab="165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2664" windowWidth="17280" windowHeight="9960" firstSheet="87" activeTab="87" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="268">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -8220,7 +8220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360695DF-45A8-4981-840F-BD8B6D207950}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -15436,8 +15436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278CAFD-9A27-473E-9569-89143A17400C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15526,9 +15526,6 @@
       </c>
       <c r="J2">
         <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
       </c>
       <c r="L2" t="s">
         <v>89</v>
@@ -16582,8 +16579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05675AB3-9AB3-485F-8257-8FEE60144F2F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16650,7 +16647,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -16678,9 +16675,6 @@
       </c>
       <c r="J2">
         <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>214</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -16695,8 +16689,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{8F54D2E0-433A-4B69-9B1A-86B94C61D80D}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{869557AD-4A1C-483B-A8A2-D0A685768CCC}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{E07C407E-9231-4655-BC04-2DED64A24BF4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E07C407E-9231-4655-BC04-2DED64A24BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40374F-8751-4507-8F68-325E0AF85E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11786472-FC90-4624-BD5D-769A0E6A382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2664" windowWidth="17280" windowHeight="9960" firstSheet="87" activeTab="87" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="1200" windowWidth="17280" windowHeight="9960" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="269">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>ExpectedtermsResult</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -9269,8 +9272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D490BC-D541-4DC5-9963-1BB253571DEC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9362,6 +9365,9 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>207</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -12093,8 +12099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175D5FA-82E8-44A1-8A39-DAE52461699A}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:M2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15436,8 +15442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278CAFD-9A27-473E-9569-89143A17400C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15526,6 +15532,9 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>214</v>
       </c>
       <c r="L2" t="s">
         <v>89</v>
@@ -15669,8 +15678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86468C-695C-4872-9C6E-0F9FE7D0B60B}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15800,6 +15809,9 @@
       </c>
       <c r="O2">
         <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -16580,7 +16592,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16675,6 +16687,9 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>268</v>
       </c>
       <c r="L2">
         <v>10</v>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11786472-FC90-4624-BD5D-769A0E6A382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716211A-3251-46DC-B93E-656821F90590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="1200" windowWidth="17280" windowHeight="9960" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6612" yWindow="3408" windowWidth="17280" windowHeight="9960" firstSheet="154" activeTab="155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="270">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -986,9 +986,6 @@
     <t>ExpectedMessageResult</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>Please select valid quote valid till</t>
   </si>
   <si>
@@ -999,6 +996,12 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -6421,7 +6424,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6429,7 +6432,7 @@
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
@@ -6447,16 +6450,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>122</v>
@@ -6472,15 +6475,17 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9">
-        <v>9722288802</v>
+      <c r="D2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
+      <c r="G2" s="9">
+        <v>2345673654</v>
       </c>
       <c r="H2" t="s">
         <v>52</v>
@@ -6501,7 +6506,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D1" sqref="D1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6509,8 +6514,8 @@
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
@@ -6527,16 +6532,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>122</v>
@@ -6553,14 +6558,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
+      <c r="G2" s="9">
+        <v>2345673654</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -6568,9 +6575,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F9D1842-CD4D-49EC-95DE-1CE20854C8E0}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{C9FE4410-7E2C-4F41-8BEA-FBA4F10E43D0}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C5C076E5-52E9-4866-A510-B2597AA7192B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C9FE4410-7E2C-4F41-8BEA-FBA4F10E43D0}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C5C076E5-52E9-4866-A510-B2597AA7192B}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{D0C8D64C-EEF0-4236-BEB7-CDC627073867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6580,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C740F3D-6269-464F-8D99-1FB1178DC0F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6589,10 +6596,10 @@
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6607,16 +6614,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>122</v>
@@ -6633,16 +6640,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="9">
-        <v>8828888221</v>
+        <v>230</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2345673654</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>114</v>
@@ -6652,6 +6659,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5D2C2544-D0AD-44B7-8704-59E2DD04F0EA}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{16A94B98-25C5-4FD0-8582-7BBF3BC7E0D9}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{7C57FAD0-D832-4731-9AED-852E7C35A3B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7504,7 +7512,7 @@
         <v>100</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7614,7 +7622,7 @@
         <v>96</v>
       </c>
       <c r="W1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7685,7 +7693,7 @@
         <v>100</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9272,7 +9280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D490BC-D541-4DC5-9963-1BB253571DEC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -16689,7 +16697,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2">
         <v>10</v>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashgautam/Desktop/Apptad-AutomationProject/src/test/resources/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashgautam/Downloads/AutomationProject/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EDCEC9-C7D8-1348-BCFC-BF63BB467514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E433C-FCE6-2340-BA51-613A7C9F372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" firstSheet="30" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -106,60 +106,59 @@
     <sheet name="InvalidProjectTitle" sheetId="64" r:id="rId91"/>
     <sheet name="CreateNewProjectEnterprise" sheetId="65" r:id="rId92"/>
     <sheet name="CreateExistingProjectPageData" sheetId="66" r:id="rId93"/>
-    <sheet name="Agencylogin" sheetId="183" r:id="rId94"/>
-    <sheet name="ExistingInvalidProjectType" sheetId="67" r:id="rId95"/>
-    <sheet name="ExistingInvalidProjectTitle" sheetId="68" r:id="rId96"/>
-    <sheet name="ExistingInvalidProjectDesc" sheetId="69" r:id="rId97"/>
-    <sheet name="ExistingInvalidFieldName" sheetId="70" r:id="rId98"/>
-    <sheet name="ExistingInvalidFrequency" sheetId="71" r:id="rId99"/>
-    <sheet name="ExistingInvalidRadius" sheetId="72" r:id="rId100"/>
-    <sheet name="SendProposalWithoutBill" sheetId="73" r:id="rId101"/>
-    <sheet name="ApploginChamp" sheetId="74" r:id="rId102"/>
-    <sheet name="verify_Req_cash_credit" sheetId="35" r:id="rId103"/>
-    <sheet name="verify_Req_Task_credit" sheetId="36" r:id="rId104"/>
-    <sheet name="verify_view_statement" sheetId="37" r:id="rId105"/>
-    <sheet name="verify_Export_credits_page" sheetId="38" r:id="rId106"/>
-    <sheet name="verify_Export_credits_payout" sheetId="39" r:id="rId107"/>
-    <sheet name="verify_paying_cash_credit" sheetId="40" r:id="rId108"/>
-    <sheet name="verify_paying_Task_credit" sheetId="41" r:id="rId109"/>
-    <sheet name="addTeamMember" sheetId="42" r:id="rId110"/>
-    <sheet name="validation_for_invalid_Name (2)" sheetId="43" r:id="rId111"/>
-    <sheet name="validation_for_invalid_Mobi (2)" sheetId="44" r:id="rId112"/>
-    <sheet name="validation_for_invalid_Emai (2)" sheetId="45" r:id="rId113"/>
-    <sheet name="verify_proofofwork_Dashboard" sheetId="46" r:id="rId114"/>
-    <sheet name="verify_proofofwork_Project" sheetId="47" r:id="rId115"/>
-    <sheet name="verify_proofofwork_JobApp" sheetId="48" r:id="rId116"/>
-    <sheet name="verify_proofofwork_ViewTask" sheetId="49" r:id="rId117"/>
-    <sheet name="verify_Download_Dashboard" sheetId="50" r:id="rId118"/>
-    <sheet name="verify_Download_ViewTask" sheetId="51" r:id="rId119"/>
-    <sheet name="verify_Download_Workorder" sheetId="52" r:id="rId120"/>
-    <sheet name="verify_Download_XLS" sheetId="53" r:id="rId121"/>
-    <sheet name="verify_Attendance_Workorder" sheetId="54" r:id="rId122"/>
-    <sheet name="verify_Attendance_ViewTask" sheetId="55" r:id="rId123"/>
-    <sheet name="verify_Attendance_Active" sheetId="56" r:id="rId124"/>
-    <sheet name="validation_for_invalid_Name" sheetId="21" r:id="rId125"/>
-    <sheet name="validation_for_invalid_Mobile" sheetId="22" r:id="rId126"/>
-    <sheet name="validation_for_invalid_Email" sheetId="23" r:id="rId127"/>
-    <sheet name="signUp_With_ValidEmailOTP" sheetId="2" r:id="rId128"/>
-    <sheet name="signUp_With_ValidPhNoOTP" sheetId="176" r:id="rId129"/>
-    <sheet name="verifySignupEmptyphoneEmailErr" sheetId="177" r:id="rId130"/>
-    <sheet name="verifySignupInvalidEmailFormat" sheetId="178" r:id="rId131"/>
-    <sheet name="verifySignupInvalidPhoneFormat" sheetId="179" r:id="rId132"/>
-    <sheet name="verifySignupErrIncorrectOTP" sheetId="180" r:id="rId133"/>
-    <sheet name="verifyInvalidMobileNoFormat" sheetId="181" r:id="rId134"/>
-    <sheet name="verifyEmptyCompanyNameErr" sheetId="182" r:id="rId135"/>
-    <sheet name="login" sheetId="1" r:id="rId136"/>
-    <sheet name="login_with_valid_email_and_pass" sheetId="3" r:id="rId137"/>
-    <sheet name="login_with_valid_phNum_pass" sheetId="4" r:id="rId138"/>
-    <sheet name="validation_for_invalid_PhEmail" sheetId="5" r:id="rId139"/>
-    <sheet name="validation_for_empty_pass" sheetId="6" r:id="rId140"/>
-    <sheet name="forgot_pass_with_valid_email" sheetId="7" r:id="rId141"/>
-    <sheet name="validation_For_empty_emailPhone" sheetId="8" r:id="rId142"/>
-    <sheet name="validation_On_Empty_OTP" sheetId="9" r:id="rId143"/>
-    <sheet name="validation_On_Empty_NewPassword" sheetId="10" r:id="rId144"/>
-    <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId145"/>
-    <sheet name="validation_On_InvalidPassword" sheetId="151" r:id="rId146"/>
-    <sheet name="validation_On_EmptyEmailPh" sheetId="152" r:id="rId147"/>
+    <sheet name="ExistingInvalidProjectType" sheetId="67" r:id="rId94"/>
+    <sheet name="ExistingInvalidProjectTitle" sheetId="68" r:id="rId95"/>
+    <sheet name="ExistingInvalidProjectDesc" sheetId="69" r:id="rId96"/>
+    <sheet name="ExistingInvalidFieldName" sheetId="70" r:id="rId97"/>
+    <sheet name="ExistingInvalidFrequency" sheetId="71" r:id="rId98"/>
+    <sheet name="ExistingInvalidRadius" sheetId="72" r:id="rId99"/>
+    <sheet name="SendProposalWithoutBill" sheetId="73" r:id="rId100"/>
+    <sheet name="ApploginChamp" sheetId="74" r:id="rId101"/>
+    <sheet name="verify_Req_cash_credit" sheetId="35" r:id="rId102"/>
+    <sheet name="verify_Req_Task_credit" sheetId="36" r:id="rId103"/>
+    <sheet name="verify_view_statement" sheetId="37" r:id="rId104"/>
+    <sheet name="verify_Export_credits_page" sheetId="38" r:id="rId105"/>
+    <sheet name="verify_Export_credits_payout" sheetId="39" r:id="rId106"/>
+    <sheet name="verify_paying_cash_credit" sheetId="40" r:id="rId107"/>
+    <sheet name="verify_paying_Task_credit" sheetId="41" r:id="rId108"/>
+    <sheet name="addTeamMember" sheetId="42" r:id="rId109"/>
+    <sheet name="validation_for_invalid_Name (2)" sheetId="43" r:id="rId110"/>
+    <sheet name="validation_for_invalid_Mobi (2)" sheetId="44" r:id="rId111"/>
+    <sheet name="validation_for_invalid_Emai (2)" sheetId="45" r:id="rId112"/>
+    <sheet name="verify_proofofwork_Dashboard" sheetId="46" r:id="rId113"/>
+    <sheet name="verify_proofofwork_Project" sheetId="47" r:id="rId114"/>
+    <sheet name="verify_proofofwork_JobApp" sheetId="48" r:id="rId115"/>
+    <sheet name="verify_proofofwork_ViewTask" sheetId="49" r:id="rId116"/>
+    <sheet name="verify_Download_Dashboard" sheetId="50" r:id="rId117"/>
+    <sheet name="verify_Download_ViewTask" sheetId="51" r:id="rId118"/>
+    <sheet name="verify_Download_Workorder" sheetId="52" r:id="rId119"/>
+    <sheet name="verify_Download_XLS" sheetId="53" r:id="rId120"/>
+    <sheet name="verify_Attendance_Workorder" sheetId="54" r:id="rId121"/>
+    <sheet name="verify_Attendance_ViewTask" sheetId="55" r:id="rId122"/>
+    <sheet name="verify_Attendance_Active" sheetId="56" r:id="rId123"/>
+    <sheet name="validation_for_invalid_Name" sheetId="21" r:id="rId124"/>
+    <sheet name="validation_for_invalid_Mobile" sheetId="22" r:id="rId125"/>
+    <sheet name="validation_for_invalid_Email" sheetId="23" r:id="rId126"/>
+    <sheet name="signUp_With_ValidEmailOTP" sheetId="2" r:id="rId127"/>
+    <sheet name="signUp_With_ValidPhNoOTP" sheetId="176" r:id="rId128"/>
+    <sheet name="verifySignupEmptyphoneEmailErr" sheetId="177" r:id="rId129"/>
+    <sheet name="verifySignupInvalidEmailFormat" sheetId="178" r:id="rId130"/>
+    <sheet name="verifySignupInvalidPhoneFormat" sheetId="179" r:id="rId131"/>
+    <sheet name="verifySignupErrIncorrectOTP" sheetId="180" r:id="rId132"/>
+    <sheet name="verifyInvalidMobileNoFormat" sheetId="181" r:id="rId133"/>
+    <sheet name="verifyEmptyCompanyNameErr" sheetId="182" r:id="rId134"/>
+    <sheet name="login" sheetId="1" r:id="rId135"/>
+    <sheet name="login_with_valid_email_and_pass" sheetId="3" r:id="rId136"/>
+    <sheet name="login_with_valid_phNum_pass" sheetId="4" r:id="rId137"/>
+    <sheet name="validation_for_invalid_PhEmail" sheetId="5" r:id="rId138"/>
+    <sheet name="validation_for_empty_pass" sheetId="6" r:id="rId139"/>
+    <sheet name="forgot_pass_with_valid_email" sheetId="7" r:id="rId140"/>
+    <sheet name="validation_For_empty_emailPhone" sheetId="8" r:id="rId141"/>
+    <sheet name="validation_On_Empty_OTP" sheetId="9" r:id="rId142"/>
+    <sheet name="validation_On_Empty_NewPassword" sheetId="10" r:id="rId143"/>
+    <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId144"/>
+    <sheet name="validation_On_InvalidPassword" sheetId="151" r:id="rId145"/>
+    <sheet name="validation_On_EmptyEmailPh" sheetId="152" r:id="rId146"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="263">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -955,13 +954,13 @@
     <t>Please enter valid company name</t>
   </si>
   <si>
-    <t>TESTINGWORKORDER</t>
-  </si>
-  <si>
-    <t>09/30/2024</t>
-  </si>
-  <si>
     <t>https://demo.workorbits.com/employment/active/workproof/</t>
+  </si>
+  <si>
+    <t>expectedNewTabURL</t>
+  </si>
+  <si>
+    <t>TextField</t>
   </si>
 </sst>
 </file>
@@ -1171,27 +1170,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2014,130 +1993,6 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A95B8D-0265-4782-AA5B-5ECF96D111A5}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>112233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{1109101B-BA22-4650-B486-982A74B8A291}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{9FA2DB66-36A1-4BDA-83FC-45BA3D36B24C}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1671663-5209-46A3-B049-8C2B8BFE52CD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506C84A-7F6E-47B0-B49D-DF5C5BEA50B3}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2273,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890B6721-FBF4-45D7-8890-587EBC0AEC26}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2308,7 +2163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE5708-A477-466A-AA41-F25439FFB83F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2376,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6232E214-680F-45F3-B13A-67C05B519CEE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2446,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220B46-A31D-4F24-AA7C-604A0385DC81}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2491,7 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D696315-65EB-4356-8FA4-BA1A1924DF98}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2526,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D470AF7-034B-442E-8461-2D7F224838CB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2561,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EA23D-B4DD-465F-ADB0-443CCB6D1CB8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2620,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DE949-1ECA-4D62-92E8-B35A68AB2E05}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2674,6 +2529,72 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{038EF7C3-E34B-4062-A7CB-847F70B55C1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2735F2-B97A-42D7-ADD6-EBECA7643705}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2">
+        <v>76969</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3EDD5240-8C12-4A7F-95CA-0BE4EDBC463A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2840,72 +2761,6 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2735F2-B97A-42D7-ADD6-EBECA7643705}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2">
-        <v>76969</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{3EDD5240-8C12-4A7F-95CA-0BE4EDBC463A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E35581-D823-48AB-AAA4-40EA4D434D97}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2969,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A73D1-06EA-4448-A130-EEC1E2447BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3033,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C9E662-BA19-47E5-8E5D-1314AE11C614}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3098,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6D1321-95EB-4630-9FBA-73D625E5DD61}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3144,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8FF53-0BCE-4D6D-83C1-CA2A8B0E899C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3188,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5049A669-BB76-4D4B-A00D-9EAE6553F22D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3232,7 +3087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94E2D-51ED-4EE3-926A-FF57632E9639}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3276,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1F0B3A-B550-4746-B564-87513DBEE2E1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3327,7 +3182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176AAB43-65F2-4FC5-A1A6-2A9A9436F04D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3373,6 +3228,81 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B3115AFA-6F66-4F61-8106-1A819124A476}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB38220-0F27-4F05-A2DB-9A03B630C1D5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:F2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3637,7 +3567,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD1:AE2">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2E23724F-9C7E-492A-9416-5F0DDA676034}"/>
@@ -3650,81 +3580,6 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB38220-0F27-4F05-A2DB-9A03B630C1D5}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C613E479-972C-4234-BBF5-48BC84D6D254}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3768,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB13B0-E215-4E51-8ECB-676C6734043E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3820,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA3620-2486-4D98-ABA3-1BF5D6767EC2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3871,7 +3726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7B189C-02B9-4006-AD95-391F6EFFA5D7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3923,7 +3778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB345CE-8B06-46FC-960B-BD4DEF78C5D2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3988,7 +3843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C46D4A-6777-496A-8204-CB346A519ADE}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4053,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914E617-9322-4F43-BF2D-382AD33A2889}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4118,7 +3973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB981E43-EC92-4082-87A8-F886F963D720}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4191,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB6EF81-CA78-4A96-89B6-B8103DBC7034}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4259,6 +4114,38 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{378E417E-436E-4264-B5A3-8630E4DA22E3}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C11B19-576D-4B73-B65D-CA98FB78233E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4512,7 +4399,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC1:AD2">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0BFAE797-9CB7-4402-8F87-D60F6640FF10}"/>
@@ -4525,38 +4412,6 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C11B19-576D-4B73-B65D-CA98FB78233E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6876486-0132-4BE9-B603-37A26A314E41}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4591,7 +4446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8F49DD-6565-4EA2-BB84-FF08F29C2956}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4626,7 +4481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A09C7A-FDB7-437C-9216-4494E321E64F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4668,7 +4523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FA763E-7644-4105-AF39-5C8F5E23AD18}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4715,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A3A598-5958-4B2F-83FC-F9C3335A7DB8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4771,7 +4626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4816,7 +4671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C82677-9536-4C69-8C87-A904A79E901B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4862,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD1DA7-E1BE-4ED3-AA4F-869C5296E924}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4908,7 +4763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BCF084-8D3F-4232-AE52-C2BF5DEF39F4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4999,6 +4854,42 @@
     <hyperlink ref="B6" r:id="rId6" xr:uid="{C1CAA39D-6207-4030-A37F-A23E214A595C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A54795-F5B5-42CD-BABB-F3610715E5F1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1234567890</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5110,7 +5001,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{844409B9-4518-416E-88B9-E71A345CFB12}"/>
@@ -5121,42 +5012,6 @@
 </file>
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A54795-F5B5-42CD-BABB-F3610715E5F1}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1234567890</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86090C96-E729-4A1A-95B3-4612F42026A8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5209,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E381B-E8C8-4FE3-9BF1-5C35EA0C120C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5237,7 +5092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068E75-5F11-49BD-A9DE-BD04A76D5812}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5283,7 +5138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD963A91-83AC-4848-95D9-E1D1F39A5559}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5328,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75DB434-9AF3-48BA-81E1-8D2FDED835D8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5379,7 +5234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8374CC-96C0-4721-BEC2-AE5C35FE1785}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5424,7 +5279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B813F032-6972-45D5-B2C2-1A499E4E4BE2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5560,7 +5415,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{09430D94-2145-44CA-9915-005A517E8C23}"/>
@@ -5678,7 +5533,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BE94A0D7-0410-452E-9BE2-20E4DF1AFF22}"/>
@@ -5796,7 +5651,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14FC3AB9-B453-46CA-863D-33761C323DDC}"/>
@@ -5867,10 +5722,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F2">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0A9FF332-F266-4F06-BD9A-1772A62329B6}"/>
@@ -5939,13 +5794,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E2">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{57223C36-ABF7-4C5E-972E-0360280AE7A2}"/>
@@ -7219,7 +7074,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{608C7CC8-F075-4A70-BD0C-9C5F01AE4F00}"/>
@@ -7231,64 +7086,52 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60848A51-B442-42B3-9E34-6B2AFB5ECCB4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="114.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>130</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" t="s">
         <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:D1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+    </row>
+  </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1BE12C3C-5BD5-43E6-9A99-CFB170A520D6}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1BE12C3C-5BD5-43E6-9A99-CFB170A520D6}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{7602D148-037D-4BFD-9F7F-18ACCECA12A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7674,7 +7517,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A48CA74E-2140-410C-8B8C-C72C135C45F1}"/>
@@ -10464,100 +10307,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{42855C14-FC85-4C1C-AB4D-7250C8919402}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{FA5F9013-715C-4DF7-9B83-EFD9F8D993A6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07520E-FE7D-45B0-9A3F-9FC8D91CBE11}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:E2">
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD5D74A-9765-48B8-AC31-50E848625BC3}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{1D2EE066-AE4B-430D-8B2D-A72286342981}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{42855C14-FC85-4C1C-AB4D-7250C8919402}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FA5F9013-715C-4DF7-9B83-EFD9F8D993A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4007B1-9E21-424F-B77E-D73FE1D93B1A}">
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07520E-FE7D-45B0-9A3F-9FC8D91CBE11}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10628,19 +10392,19 @@
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{05C1878F-C482-4723-8A0A-0F5B4B980DA8}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F17B3F68-683D-4821-BA83-9D5AA6860A0C}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD5D74A-9765-48B8-AC31-50E848625BC3}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{1D2EE066-AE4B-430D-8B2D-A72286342981}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA36498D-D5D9-46D3-895D-6F8FDC1236FE}">
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4007B1-9E21-424F-B77E-D73FE1D93B1A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10707,19 +10471,19 @@
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B3BB0B30-9B36-4021-9B97-7B125847F859}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F91B64A0-6096-42CA-8FB9-37AFB4743C3A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{05C1878F-C482-4723-8A0A-0F5B4B980DA8}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F17B3F68-683D-4821-BA83-9D5AA6860A0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD3EE-1769-4A67-AA67-3642D1A51B13}">
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA36498D-D5D9-46D3-895D-6F8FDC1236FE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10752,7 +10516,7 @@
         <v>200</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10775,7 +10539,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -10786,19 +10550,19 @@
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{46346B06-5FDD-43E4-AA51-EA93781CBE3F}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{0A135B47-59B9-4B47-AF7B-324C9F0B676E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B3BB0B30-9B36-4021-9B97-7B125847F859}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F91B64A0-6096-42CA-8FB9-37AFB4743C3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41CAA10-D9D6-4FB4-98AB-7BB4630DB068}">
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD3EE-1769-4A67-AA67-3642D1A51B13}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10865,19 +10629,19 @@
     <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{0C437D21-BC4F-41B8-A57D-A1652607BA72}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{46346B06-5FDD-43E4-AA51-EA93781CBE3F}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{0A135B47-59B9-4B47-AF7B-324C9F0B676E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518BC6B6-C0C1-4C5F-96FF-55D871CC4121}">
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41CAA10-D9D6-4FB4-98AB-7BB4630DB068}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10942,6 +10706,85 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{0C437D21-BC4F-41B8-A57D-A1652607BA72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518BC6B6-C0C1-4C5F-96FF-55D871CC4121}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E2">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
@@ -11117,10 +10960,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AF23535F-A70C-407A-BB87-F15913EFEB88}"/>
@@ -13708,41 +13551,6 @@
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141B132-45B3-3B47-B3C5-531DE8277CCC}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D26667-F71C-4482-A33D-D1600F97114C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -13795,7 +13603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1458B880-6C7E-4A69-8B24-49F8E6F11DE0}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -13859,7 +13667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6A2603-7405-4BB9-87F6-65097EE24B4E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -13923,7 +13731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05675AB3-9AB3-485F-8257-8FEE60144F2F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -14047,7 +13855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D48FA7-0AA4-47CC-B1EF-E1C6D9427C3D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -14169,4 +13977,128 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A95B8D-0265-4782-AA5B-5ECF96D111A5}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1109101B-BA22-4650-B486-982A74B8A291}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{9FA2DB66-36A1-4BDA-83FC-45BA3D36B24C}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1671663-5209-46A3-B049-8C2B8BFE52CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashgautam/Downloads/AutomationProject/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E433C-FCE6-2340-BA51-613A7C9F372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FFE05-A489-0246-88E2-AF3307EF22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" firstSheet="30" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -45,120 +45,121 @@
     <sheet name="ProjectApprovalAgencies" sheetId="144" r:id="rId30"/>
     <sheet name="ViewtaskPage" sheetId="139" r:id="rId31"/>
     <sheet name="createNewClient" sheetId="135" r:id="rId32"/>
-    <sheet name="verify_ClientNameError" sheetId="136" r:id="rId33"/>
-    <sheet name="verify_ClientPhoneError" sheetId="137" r:id="rId34"/>
-    <sheet name="verify_ClientEmailError" sheetId="138" r:id="rId35"/>
-    <sheet name="CreateworkorderPage" sheetId="129" r:id="rId36"/>
-    <sheet name="verify_LocationError" sheetId="134" r:id="rId37"/>
-    <sheet name="verify_DateError" sheetId="131" r:id="rId38"/>
-    <sheet name="verify_StarttimeError" sheetId="132" r:id="rId39"/>
-    <sheet name="verify_EndtimeError" sheetId="133" r:id="rId40"/>
-    <sheet name="AcceptRejectClients" sheetId="121" r:id="rId41"/>
-    <sheet name="AcceptRejectInvalidEnterprise" sheetId="122" r:id="rId42"/>
-    <sheet name="AcceptRejectInvalidProjectType" sheetId="123" r:id="rId43"/>
-    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="124" r:id="rId44"/>
-    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="125" r:id="rId45"/>
-    <sheet name="AcceptRejectInvalidFrequency" sheetId="126" r:id="rId46"/>
-    <sheet name="AcceptRejectInvalidRadius" sheetId="127" r:id="rId47"/>
-    <sheet name="CreateProjectEnterpriseData" sheetId="103" r:id="rId48"/>
-    <sheet name="EnterpriseImproperProjectType" sheetId="104" r:id="rId49"/>
-    <sheet name="EnterpriseInvalidProjectDesc" sheetId="105" r:id="rId50"/>
-    <sheet name="EnterpriseInvalidFieldName" sheetId="106" r:id="rId51"/>
-    <sheet name="EnterpriseInvalidFieldType" sheetId="107" r:id="rId52"/>
-    <sheet name="EnterpriseInvalidFrequency" sheetId="108" r:id="rId53"/>
-    <sheet name="EnterpriseInvalidRadius" sheetId="109" r:id="rId54"/>
-    <sheet name="EnterpriseInvalidProjectTitle" sheetId="110" r:id="rId55"/>
-    <sheet name="ExistingInvalidEnterprise" sheetId="102" r:id="rId56"/>
-    <sheet name="addChamp_with_valid_data" sheetId="77" r:id="rId57"/>
-    <sheet name="validate_for_invalid_phone_num" sheetId="78" r:id="rId58"/>
-    <sheet name="validate_invalid_name" sheetId="79" r:id="rId59"/>
-    <sheet name="dashboard" sheetId="80" r:id="rId60"/>
-    <sheet name="viewTask" sheetId="81" r:id="rId61"/>
-    <sheet name="workOrder" sheetId="82" r:id="rId62"/>
-    <sheet name="addChamp_via_dashBoard" sheetId="83" r:id="rId63"/>
-    <sheet name="addChamp_via_workOrder" sheetId="84" r:id="rId64"/>
-    <sheet name="addChamp_via_ViewTask" sheetId="85" r:id="rId65"/>
-    <sheet name="addChamp_via_ViewJobSeekerSch" sheetId="86" r:id="rId66"/>
-    <sheet name="addChamp_via_dashBoard_Error" sheetId="87" r:id="rId67"/>
-    <sheet name="addChamp_via_workOrder_Error" sheetId="88" r:id="rId68"/>
-    <sheet name="addChamp_via_ViewTask_Error" sheetId="89" r:id="rId69"/>
-    <sheet name="addChamp_via_ViewJobSeekerError" sheetId="90" r:id="rId70"/>
-    <sheet name="Withdraw_valid_Upi" sheetId="91" r:id="rId71"/>
-    <sheet name="Withdraw_valid_Bank" sheetId="92" r:id="rId72"/>
-    <sheet name="Withdraw_Invalid_Upi" sheetId="93" r:id="rId73"/>
-    <sheet name="Withdraw_Invalid_BankNumber" sheetId="94" r:id="rId74"/>
-    <sheet name="Withdraw_Invalid_ConfAccBankNum" sheetId="95" r:id="rId75"/>
-    <sheet name="Withdraw_Invalid_IFSCcode" sheetId="96" r:id="rId76"/>
-    <sheet name="Withdraw_Short_IFSCcode" sheetId="97" r:id="rId77"/>
-    <sheet name="Withdraw_Invalid_Name" sheetId="98" r:id="rId78"/>
-    <sheet name="Withdraw_Short_Name" sheetId="99" r:id="rId79"/>
-    <sheet name="RequestCredit" sheetId="100" r:id="rId80"/>
-    <sheet name="TaskCredit" sheetId="101" r:id="rId81"/>
-    <sheet name="addNewVendor" sheetId="75" r:id="rId82"/>
-    <sheet name="addValidVendor" sheetId="76" r:id="rId83"/>
-    <sheet name="CreateProjectPageTestData" sheetId="57" r:id="rId84"/>
-    <sheet name="SelectingImproperProjectType" sheetId="58" r:id="rId85"/>
-    <sheet name="InvalidProjectDescription" sheetId="59" r:id="rId86"/>
-    <sheet name="InvalidFieldName" sheetId="60" r:id="rId87"/>
-    <sheet name="InvalidFieldType" sheetId="61" r:id="rId88"/>
-    <sheet name="InvalidFrequency" sheetId="62" r:id="rId89"/>
-    <sheet name="InvalidRadius" sheetId="63" r:id="rId90"/>
-    <sheet name="InvalidProjectTitle" sheetId="64" r:id="rId91"/>
-    <sheet name="CreateNewProjectEnterprise" sheetId="65" r:id="rId92"/>
-    <sheet name="CreateExistingProjectPageData" sheetId="66" r:id="rId93"/>
-    <sheet name="ExistingInvalidProjectType" sheetId="67" r:id="rId94"/>
-    <sheet name="ExistingInvalidProjectTitle" sheetId="68" r:id="rId95"/>
-    <sheet name="ExistingInvalidProjectDesc" sheetId="69" r:id="rId96"/>
-    <sheet name="ExistingInvalidFieldName" sheetId="70" r:id="rId97"/>
-    <sheet name="ExistingInvalidFrequency" sheetId="71" r:id="rId98"/>
-    <sheet name="ExistingInvalidRadius" sheetId="72" r:id="rId99"/>
-    <sheet name="SendProposalWithoutBill" sheetId="73" r:id="rId100"/>
-    <sheet name="ApploginChamp" sheetId="74" r:id="rId101"/>
-    <sheet name="verify_Req_cash_credit" sheetId="35" r:id="rId102"/>
-    <sheet name="verify_Req_Task_credit" sheetId="36" r:id="rId103"/>
-    <sheet name="verify_view_statement" sheetId="37" r:id="rId104"/>
-    <sheet name="verify_Export_credits_page" sheetId="38" r:id="rId105"/>
-    <sheet name="verify_Export_credits_payout" sheetId="39" r:id="rId106"/>
-    <sheet name="verify_paying_cash_credit" sheetId="40" r:id="rId107"/>
-    <sheet name="verify_paying_Task_credit" sheetId="41" r:id="rId108"/>
-    <sheet name="addTeamMember" sheetId="42" r:id="rId109"/>
-    <sheet name="validation_for_invalid_Name (2)" sheetId="43" r:id="rId110"/>
-    <sheet name="validation_for_invalid_Mobi (2)" sheetId="44" r:id="rId111"/>
-    <sheet name="validation_for_invalid_Emai (2)" sheetId="45" r:id="rId112"/>
-    <sheet name="verify_proofofwork_Dashboard" sheetId="46" r:id="rId113"/>
-    <sheet name="verify_proofofwork_Project" sheetId="47" r:id="rId114"/>
-    <sheet name="verify_proofofwork_JobApp" sheetId="48" r:id="rId115"/>
-    <sheet name="verify_proofofwork_ViewTask" sheetId="49" r:id="rId116"/>
-    <sheet name="verify_Download_Dashboard" sheetId="50" r:id="rId117"/>
-    <sheet name="verify_Download_ViewTask" sheetId="51" r:id="rId118"/>
-    <sheet name="verify_Download_Workorder" sheetId="52" r:id="rId119"/>
-    <sheet name="verify_Download_XLS" sheetId="53" r:id="rId120"/>
-    <sheet name="verify_Attendance_Workorder" sheetId="54" r:id="rId121"/>
-    <sheet name="verify_Attendance_ViewTask" sheetId="55" r:id="rId122"/>
-    <sheet name="verify_Attendance_Active" sheetId="56" r:id="rId123"/>
-    <sheet name="validation_for_invalid_Name" sheetId="21" r:id="rId124"/>
-    <sheet name="validation_for_invalid_Mobile" sheetId="22" r:id="rId125"/>
-    <sheet name="validation_for_invalid_Email" sheetId="23" r:id="rId126"/>
-    <sheet name="signUp_With_ValidEmailOTP" sheetId="2" r:id="rId127"/>
-    <sheet name="signUp_With_ValidPhNoOTP" sheetId="176" r:id="rId128"/>
-    <sheet name="verifySignupEmptyphoneEmailErr" sheetId="177" r:id="rId129"/>
-    <sheet name="verifySignupInvalidEmailFormat" sheetId="178" r:id="rId130"/>
-    <sheet name="verifySignupInvalidPhoneFormat" sheetId="179" r:id="rId131"/>
-    <sheet name="verifySignupErrIncorrectOTP" sheetId="180" r:id="rId132"/>
-    <sheet name="verifyInvalidMobileNoFormat" sheetId="181" r:id="rId133"/>
-    <sheet name="verifyEmptyCompanyNameErr" sheetId="182" r:id="rId134"/>
-    <sheet name="login" sheetId="1" r:id="rId135"/>
-    <sheet name="login_with_valid_email_and_pass" sheetId="3" r:id="rId136"/>
-    <sheet name="login_with_valid_phNum_pass" sheetId="4" r:id="rId137"/>
-    <sheet name="validation_for_invalid_PhEmail" sheetId="5" r:id="rId138"/>
-    <sheet name="validation_for_empty_pass" sheetId="6" r:id="rId139"/>
-    <sheet name="forgot_pass_with_valid_email" sheetId="7" r:id="rId140"/>
-    <sheet name="validation_For_empty_emailPhone" sheetId="8" r:id="rId141"/>
-    <sheet name="validation_On_Empty_OTP" sheetId="9" r:id="rId142"/>
-    <sheet name="validation_On_Empty_NewPassword" sheetId="10" r:id="rId143"/>
-    <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId144"/>
-    <sheet name="validation_On_InvalidPassword" sheetId="151" r:id="rId145"/>
-    <sheet name="validation_On_EmptyEmailPh" sheetId="152" r:id="rId146"/>
+    <sheet name="Agencylogin" sheetId="184" r:id="rId33"/>
+    <sheet name="verify_ClientNameError" sheetId="136" r:id="rId34"/>
+    <sheet name="verify_ClientPhoneError" sheetId="137" r:id="rId35"/>
+    <sheet name="verify_ClientEmailError" sheetId="138" r:id="rId36"/>
+    <sheet name="CreateworkorderPage" sheetId="129" r:id="rId37"/>
+    <sheet name="verify_LocationError" sheetId="134" r:id="rId38"/>
+    <sheet name="verify_DateError" sheetId="131" r:id="rId39"/>
+    <sheet name="verify_StarttimeError" sheetId="132" r:id="rId40"/>
+    <sheet name="verify_EndtimeError" sheetId="133" r:id="rId41"/>
+    <sheet name="AcceptRejectClients" sheetId="121" r:id="rId42"/>
+    <sheet name="AcceptRejectInvalidEnterprise" sheetId="122" r:id="rId43"/>
+    <sheet name="AcceptRejectInvalidProjectType" sheetId="123" r:id="rId44"/>
+    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="124" r:id="rId45"/>
+    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="125" r:id="rId46"/>
+    <sheet name="AcceptRejectInvalidFrequency" sheetId="126" r:id="rId47"/>
+    <sheet name="AcceptRejectInvalidRadius" sheetId="127" r:id="rId48"/>
+    <sheet name="CreateProjectEnterpriseData" sheetId="103" r:id="rId49"/>
+    <sheet name="EnterpriseImproperProjectType" sheetId="104" r:id="rId50"/>
+    <sheet name="EnterpriseInvalidProjectDesc" sheetId="105" r:id="rId51"/>
+    <sheet name="EnterpriseInvalidFieldName" sheetId="106" r:id="rId52"/>
+    <sheet name="EnterpriseInvalidFieldType" sheetId="107" r:id="rId53"/>
+    <sheet name="EnterpriseInvalidFrequency" sheetId="108" r:id="rId54"/>
+    <sheet name="EnterpriseInvalidRadius" sheetId="109" r:id="rId55"/>
+    <sheet name="EnterpriseInvalidProjectTitle" sheetId="110" r:id="rId56"/>
+    <sheet name="ExistingInvalidEnterprise" sheetId="102" r:id="rId57"/>
+    <sheet name="addChamp_with_valid_data" sheetId="77" r:id="rId58"/>
+    <sheet name="validate_for_invalid_phone_num" sheetId="78" r:id="rId59"/>
+    <sheet name="validate_invalid_name" sheetId="79" r:id="rId60"/>
+    <sheet name="dashboard" sheetId="80" r:id="rId61"/>
+    <sheet name="viewTask" sheetId="81" r:id="rId62"/>
+    <sheet name="workOrder" sheetId="82" r:id="rId63"/>
+    <sheet name="addChamp_via_dashBoard" sheetId="83" r:id="rId64"/>
+    <sheet name="addChamp_via_workOrder" sheetId="84" r:id="rId65"/>
+    <sheet name="addChamp_via_ViewTask" sheetId="85" r:id="rId66"/>
+    <sheet name="addChamp_via_ViewJobSeekerSch" sheetId="86" r:id="rId67"/>
+    <sheet name="addChamp_via_dashBoard_Error" sheetId="87" r:id="rId68"/>
+    <sheet name="addChamp_via_workOrder_Error" sheetId="88" r:id="rId69"/>
+    <sheet name="addChamp_via_ViewTask_Error" sheetId="89" r:id="rId70"/>
+    <sheet name="addChamp_via_ViewJobSeekerError" sheetId="90" r:id="rId71"/>
+    <sheet name="Withdraw_valid_Upi" sheetId="91" r:id="rId72"/>
+    <sheet name="Withdraw_valid_Bank" sheetId="92" r:id="rId73"/>
+    <sheet name="Withdraw_Invalid_Upi" sheetId="93" r:id="rId74"/>
+    <sheet name="Withdraw_Invalid_BankNumber" sheetId="94" r:id="rId75"/>
+    <sheet name="Withdraw_Invalid_ConfAccBankNum" sheetId="95" r:id="rId76"/>
+    <sheet name="Withdraw_Invalid_IFSCcode" sheetId="96" r:id="rId77"/>
+    <sheet name="Withdraw_Short_IFSCcode" sheetId="97" r:id="rId78"/>
+    <sheet name="Withdraw_Invalid_Name" sheetId="98" r:id="rId79"/>
+    <sheet name="Withdraw_Short_Name" sheetId="99" r:id="rId80"/>
+    <sheet name="RequestCredit" sheetId="100" r:id="rId81"/>
+    <sheet name="TaskCredit" sheetId="101" r:id="rId82"/>
+    <sheet name="addNewVendor" sheetId="75" r:id="rId83"/>
+    <sheet name="addValidVendor" sheetId="76" r:id="rId84"/>
+    <sheet name="CreateProjectPageTestData" sheetId="57" r:id="rId85"/>
+    <sheet name="SelectingImproperProjectType" sheetId="58" r:id="rId86"/>
+    <sheet name="InvalidProjectDescription" sheetId="59" r:id="rId87"/>
+    <sheet name="InvalidFieldName" sheetId="60" r:id="rId88"/>
+    <sheet name="InvalidFieldType" sheetId="61" r:id="rId89"/>
+    <sheet name="InvalidFrequency" sheetId="62" r:id="rId90"/>
+    <sheet name="InvalidRadius" sheetId="63" r:id="rId91"/>
+    <sheet name="InvalidProjectTitle" sheetId="64" r:id="rId92"/>
+    <sheet name="CreateNewProjectEnterprise" sheetId="65" r:id="rId93"/>
+    <sheet name="CreateExistingProjectPageData" sheetId="66" r:id="rId94"/>
+    <sheet name="ExistingInvalidProjectType" sheetId="67" r:id="rId95"/>
+    <sheet name="ExistingInvalidProjectTitle" sheetId="68" r:id="rId96"/>
+    <sheet name="ExistingInvalidProjectDesc" sheetId="69" r:id="rId97"/>
+    <sheet name="ExistingInvalidFieldName" sheetId="70" r:id="rId98"/>
+    <sheet name="ExistingInvalidFrequency" sheetId="71" r:id="rId99"/>
+    <sheet name="ExistingInvalidRadius" sheetId="72" r:id="rId100"/>
+    <sheet name="SendProposalWithoutBill" sheetId="73" r:id="rId101"/>
+    <sheet name="ApploginChamp" sheetId="74" r:id="rId102"/>
+    <sheet name="verify_Req_cash_credit" sheetId="35" r:id="rId103"/>
+    <sheet name="verify_Req_Task_credit" sheetId="36" r:id="rId104"/>
+    <sheet name="verify_view_statement" sheetId="37" r:id="rId105"/>
+    <sheet name="verify_Export_credits_page" sheetId="38" r:id="rId106"/>
+    <sheet name="verify_Export_credits_payout" sheetId="39" r:id="rId107"/>
+    <sheet name="verify_paying_cash_credit" sheetId="40" r:id="rId108"/>
+    <sheet name="verify_paying_Task_credit" sheetId="41" r:id="rId109"/>
+    <sheet name="addTeamMember" sheetId="42" r:id="rId110"/>
+    <sheet name="validation_for_invalid_Name (2)" sheetId="43" r:id="rId111"/>
+    <sheet name="validation_for_invalid_Mobi (2)" sheetId="44" r:id="rId112"/>
+    <sheet name="validation_for_invalid_Emai (2)" sheetId="45" r:id="rId113"/>
+    <sheet name="verify_proofofwork_Dashboard" sheetId="46" r:id="rId114"/>
+    <sheet name="verify_proofofwork_Project" sheetId="47" r:id="rId115"/>
+    <sheet name="verify_proofofwork_JobApp" sheetId="48" r:id="rId116"/>
+    <sheet name="verify_proofofwork_ViewTask" sheetId="49" r:id="rId117"/>
+    <sheet name="verify_Download_Dashboard" sheetId="50" r:id="rId118"/>
+    <sheet name="verify_Download_ViewTask" sheetId="51" r:id="rId119"/>
+    <sheet name="verify_Download_Workorder" sheetId="52" r:id="rId120"/>
+    <sheet name="verify_Download_XLS" sheetId="53" r:id="rId121"/>
+    <sheet name="verify_Attendance_Workorder" sheetId="54" r:id="rId122"/>
+    <sheet name="verify_Attendance_ViewTask" sheetId="55" r:id="rId123"/>
+    <sheet name="verify_Attendance_Active" sheetId="56" r:id="rId124"/>
+    <sheet name="validation_for_invalid_Name" sheetId="21" r:id="rId125"/>
+    <sheet name="validation_for_invalid_Mobile" sheetId="22" r:id="rId126"/>
+    <sheet name="validation_for_invalid_Email" sheetId="23" r:id="rId127"/>
+    <sheet name="signUp_With_ValidEmailOTP" sheetId="2" r:id="rId128"/>
+    <sheet name="signUp_With_ValidPhNoOTP" sheetId="176" r:id="rId129"/>
+    <sheet name="verifySignupEmptyphoneEmailErr" sheetId="177" r:id="rId130"/>
+    <sheet name="verifySignupInvalidEmailFormat" sheetId="178" r:id="rId131"/>
+    <sheet name="verifySignupInvalidPhoneFormat" sheetId="179" r:id="rId132"/>
+    <sheet name="verifySignupErrIncorrectOTP" sheetId="180" r:id="rId133"/>
+    <sheet name="verifyInvalidMobileNoFormat" sheetId="181" r:id="rId134"/>
+    <sheet name="verifyEmptyCompanyNameErr" sheetId="182" r:id="rId135"/>
+    <sheet name="login" sheetId="1" r:id="rId136"/>
+    <sheet name="login_with_valid_email_and_pass" sheetId="3" r:id="rId137"/>
+    <sheet name="login_with_valid_phNum_pass" sheetId="4" r:id="rId138"/>
+    <sheet name="validation_for_invalid_PhEmail" sheetId="5" r:id="rId139"/>
+    <sheet name="validation_for_empty_pass" sheetId="6" r:id="rId140"/>
+    <sheet name="forgot_pass_with_valid_email" sheetId="7" r:id="rId141"/>
+    <sheet name="validation_For_empty_emailPhone" sheetId="8" r:id="rId142"/>
+    <sheet name="validation_On_Empty_OTP" sheetId="9" r:id="rId143"/>
+    <sheet name="validation_On_Empty_NewPassword" sheetId="10" r:id="rId144"/>
+    <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId145"/>
+    <sheet name="validation_On_InvalidPassword" sheetId="151" r:id="rId146"/>
+    <sheet name="validation_On_EmptyEmailPh" sheetId="152" r:id="rId147"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="263">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -971,7 +972,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1107,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1128,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1165,6 +1173,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1993,6 +2002,130 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A95B8D-0265-4782-AA5B-5ECF96D111A5}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1109101B-BA22-4650-B486-982A74B8A291}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{9FA2DB66-36A1-4BDA-83FC-45BA3D36B24C}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1671663-5209-46A3-B049-8C2B8BFE52CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506C84A-7F6E-47B0-B49D-DF5C5BEA50B3}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2128,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890B6721-FBF4-45D7-8890-587EBC0AEC26}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2163,7 +2296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE5708-A477-466A-AA41-F25439FFB83F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2231,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6232E214-680F-45F3-B13A-67C05B519CEE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2301,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220B46-A31D-4F24-AA7C-604A0385DC81}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2346,7 +2479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D696315-65EB-4356-8FA4-BA1A1924DF98}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2381,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D470AF7-034B-442E-8461-2D7F224838CB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2416,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EA23D-B4DD-465F-ADB0-443CCB6D1CB8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2475,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DE949-1ECA-4D62-92E8-B35A68AB2E05}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2529,72 +2662,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{038EF7C3-E34B-4062-A7CB-847F70B55C1F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2735F2-B97A-42D7-ADD6-EBECA7643705}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2">
-        <v>76969</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{3EDD5240-8C12-4A7F-95CA-0BE4EDBC463A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2761,6 +2828,72 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2735F2-B97A-42D7-ADD6-EBECA7643705}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2">
+        <v>76969</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3EDD5240-8C12-4A7F-95CA-0BE4EDBC463A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E35581-D823-48AB-AAA4-40EA4D434D97}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2824,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A73D1-06EA-4448-A130-EEC1E2447BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2888,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C9E662-BA19-47E5-8E5D-1314AE11C614}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2953,7 +3086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6D1321-95EB-4630-9FBA-73D625E5DD61}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2999,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8FF53-0BCE-4D6D-83C1-CA2A8B0E899C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3043,7 +3176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5049A669-BB76-4D4B-A00D-9EAE6553F22D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3087,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94E2D-51ED-4EE3-926A-FF57632E9639}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3131,7 +3264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1F0B3A-B550-4746-B564-87513DBEE2E1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3182,7 +3315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176AAB43-65F2-4FC5-A1A6-2A9A9436F04D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3228,81 +3361,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B3115AFA-6F66-4F61-8106-1A819124A476}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB38220-0F27-4F05-A2DB-9A03B630C1D5}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3580,6 +3638,81 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB38220-0F27-4F05-A2DB-9A03B630C1D5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:F2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C613E479-972C-4234-BBF5-48BC84D6D254}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3623,7 +3756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB13B0-E215-4E51-8ECB-676C6734043E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3675,7 +3808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA3620-2486-4D98-ABA3-1BF5D6767EC2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3726,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7B189C-02B9-4006-AD95-391F6EFFA5D7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3778,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB345CE-8B06-46FC-960B-BD4DEF78C5D2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3843,7 +3976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C46D4A-6777-496A-8204-CB346A519ADE}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3908,7 +4041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914E617-9322-4F43-BF2D-382AD33A2889}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3973,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB981E43-EC92-4082-87A8-F886F963D720}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4046,7 +4179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB6EF81-CA78-4A96-89B6-B8103DBC7034}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4114,38 +4247,6 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{378E417E-436E-4264-B5A3-8630E4DA22E3}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C11B19-576D-4B73-B65D-CA98FB78233E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4412,6 +4513,38 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C11B19-576D-4B73-B65D-CA98FB78233E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6876486-0132-4BE9-B603-37A26A314E41}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4446,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8F49DD-6565-4EA2-BB84-FF08F29C2956}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4481,7 +4614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A09C7A-FDB7-437C-9216-4494E321E64F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4523,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FA763E-7644-4105-AF39-5C8F5E23AD18}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4570,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A3A598-5958-4B2F-83FC-F9C3335A7DB8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4626,7 +4759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4671,7 +4804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C82677-9536-4C69-8C87-A904A79E901B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4717,7 +4850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD1DA7-E1BE-4ED3-AA4F-869C5296E924}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4763,7 +4896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BCF084-8D3F-4232-AE52-C2BF5DEF39F4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4854,42 +4987,6 @@
     <hyperlink ref="B6" r:id="rId6" xr:uid="{C1CAA39D-6207-4030-A37F-A23E214A595C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A54795-F5B5-42CD-BABB-F3610715E5F1}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1234567890</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5012,6 +5109,42 @@
 </file>
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A54795-F5B5-42CD-BABB-F3610715E5F1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1234567890</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86090C96-E729-4A1A-95B3-4612F42026A8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5064,7 +5197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E381B-E8C8-4FE3-9BF1-5C35EA0C120C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5092,7 +5225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068E75-5F11-49BD-A9DE-BD04A76D5812}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5138,7 +5271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD963A91-83AC-4848-95D9-E1D1F39A5559}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5183,7 +5316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75DB434-9AF3-48BA-81E1-8D2FDED835D8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5234,7 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8374CC-96C0-4721-BEC2-AE5C35FE1785}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5279,7 +5412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B813F032-6972-45D5-B2C2-1A499E4E4BE2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -7088,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60848A51-B442-42B3-9E34-6B2AFB5ECCB4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7219,6 +7352,44 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA9F8C9-F5AC-1C48-B4D6-44CB1159AA6A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:virgil.dirk@dockstones.com" xr:uid="{93FC1189-7387-CA4B-875B-CCD24009FEE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0A80E8-4C3C-4F95-B00E-FD8CBCF9E712}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -7298,7 +7469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BD1B37-7E9F-4BB0-AB9B-2424A33E7C61}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -7378,7 +7549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8996105-C10F-48B5-B3E2-C75B176AA833}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -7457,7 +7628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B91F17-D149-41B5-B02E-68A2D09B6B9A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7527,7 +7698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B7AA6E-F003-4BBC-B91E-07E32A55B800}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7593,7 +7764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8735A961-3E93-4DA2-B136-82E17AA4C240}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7649,67 +7820,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B075978B-5F14-4568-B1DA-5543A369B8D5}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{B8EB906E-100B-4C1A-9F8D-A31FFE175785}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9486A86B-D34B-4D64-A15E-8C7932122858}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C45DDA33-6279-4848-96B2-ADEE0CEB2117}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{DF39D5B9-EA73-40C3-B1EF-1DA9264F3A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7795,6 +7905,67 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9486A86B-D34B-4D64-A15E-8C7932122858}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C45DDA33-6279-4848-96B2-ADEE0CEB2117}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{DF39D5B9-EA73-40C3-B1EF-1DA9264F3A7F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F055BEC-C0CA-4029-A8AE-2D1BE4CE9052}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7854,7 +8025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6AEB6D-6BCD-4D15-B868-8FB12382B1F9}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -8089,7 +8260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A30135-A4E5-4AB7-B197-B2A8564E89E9}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -8177,7 +8348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A4EB1D-6134-4BF0-9ACD-CE773F7DD051}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -8265,7 +8436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DF8CD8-82D1-40D5-8D25-905CC0238B14}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -8363,7 +8534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE9EB3E-F9A3-4212-92DF-593FF1914A47}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -8462,7 +8633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3ECC1-65A0-48BB-92ED-412A5038DFA0}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -8620,7 +8791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62CE526-19E4-4158-BA9D-3C6A3F52DE59}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -8774,7 +8945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A009C36A-6095-4D40-8EFB-64820B2E925A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -8934,48 +9105,6 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{4EB1E497-C7A6-4B30-8723-048A444D36E7}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DD359F-6CC9-407A-A405-848366AD2ED9}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9190,6 +9319,48 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DD359F-6CC9-407A-A405-848366AD2ED9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C6F654-CD7F-422F-8B59-3F43F833C3D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -9242,7 +9413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175D5FA-82E8-44A1-8A39-DAE52461699A}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -9358,7 +9529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2523D-E9A7-499B-B0F1-B37EC11D8822}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -9459,7 +9630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE2FE2E-7F9A-4BD7-AF17-BD45E0B98CA5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -9573,7 +9744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06398D3B-89DE-48F0-AA63-A392FFB90D4F}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -9688,7 +9859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA6C6BE-AED9-4303-96C5-CEF647D48ECE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -9741,7 +9912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C067EF-B745-44E3-A402-EDBBC795D5B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -9794,7 +9965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC0FD21-FFBC-4148-B2D6-E271570BA175}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9860,7 +10031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF2025E-B67D-45F7-AE20-5A176BA9F858}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9921,70 +10092,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3A6D5FC2-BFA7-44DC-A2B9-B409DA2604A2}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{71B5688C-FC47-48D1-8512-7FE8BFE4818E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461076B-771A-4A76-B4B0-02ECD168DA98}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>8875546210</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BDF97C5F-B22C-42DE-853D-6733B0D486BD}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{02BB19C8-E6C7-4335-AE9A-04AA3241281E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10080,6 +10187,70 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461076B-771A-4A76-B4B0-02ECD168DA98}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>8875546210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BDF97C5F-B22C-42DE-853D-6733B0D486BD}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{02BB19C8-E6C7-4335-AE9A-04AA3241281E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53080CA0-711B-4BA1-B5ED-4AC8231949A3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10133,7 +10304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA19AC0B-5A8A-4FE3-92A5-37A08F55F4C1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10187,7 +10358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A19ECA-30B7-4267-B978-0842727503FE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10241,7 +10412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E188D7F-E819-45C8-BA1E-425AE417872C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10320,7 +10491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07520E-FE7D-45B0-9A3F-9FC8D91CBE11}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10399,7 +10570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4007B1-9E21-424F-B77E-D73FE1D93B1A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10478,7 +10649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA36498D-D5D9-46D3-895D-6F8FDC1236FE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10557,7 +10728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD3EE-1769-4A67-AA67-3642D1A51B13}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10636,7 +10807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41CAA10-D9D6-4FB4-98AB-7BB4630DB068}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10710,85 +10881,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{0C437D21-BC4F-41B8-A57D-A1652607BA72}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518BC6B6-C0C1-4C5F-96FF-55D871CC4121}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{88CDA9E9-4BAF-44BD-967D-A679D256F406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10895,6 +10987,85 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518BC6B6-C0C1-4C5F-96FF-55D871CC4121}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E2">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{88CDA9E9-4BAF-44BD-967D-A679D256F406}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC1265-190A-4C4B-8DEC-D2272B7673D2}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10973,7 +11144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1720189-05C7-4F13-81CA-330B84F7D9B1}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -11066,7 +11237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362FA152-8F7D-4EE5-96C5-C1FA47369C5D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -11182,7 +11353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66508CFF-29DE-49B4-A4FA-CFDB6083AA29}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -11248,7 +11419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7EB11E-EC5D-469C-9C3D-1F7D7D975324}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11337,7 +11508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29917AC-6A60-4705-901A-86C2DF243F27}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -11418,7 +11589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49BAD1A-0F41-4116-B8CB-1C371936E1C2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11505,7 +11676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B35A17-2607-4BD3-9482-F833457B5F33}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -11623,7 +11794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C9CFB4-B405-4104-948A-EC3B1B03BC05}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11705,93 +11876,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C4D610BD-3491-465B-AF07-FECB12E8C76D}"/>
     <hyperlink ref="F2" r:id="rId2" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{CEDB9D77-04AE-486F-970E-E79A80997557}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3525D0AE-C751-49D5-B53E-D3D8C8296A0B}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>111111</v>
-      </c>
-      <c r="E2">
-        <v>111111</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{1BD80F59-E1B8-4D14-8CA2-69EDE2DF17E2}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{6242E295-906C-4199-8BCC-786F2ACF8EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11898,6 +11982,93 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3525D0AE-C751-49D5-B53E-D3D8C8296A0B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>111111</v>
+      </c>
+      <c r="E2">
+        <v>111111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://ifsc.bankifsccode.com/UTBI0DMCC46" xr:uid="{1BD80F59-E1B8-4D14-8CA2-69EDE2DF17E2}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{6242E295-906C-4199-8BCC-786F2ACF8EAE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F9CB40-5823-488A-9C49-FA0E74540EB7}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -11970,7 +12141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B98A090-351A-4707-80CB-5749F75B5C70}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -12043,7 +12214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F81BD1-A238-448B-9FC0-19C9544A6136}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -12121,7 +12292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2432C5E7-745B-4EB1-A033-7B44888795B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -12173,7 +12344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE60FA-6D74-42B9-AD3B-ACC29491984F}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -12343,7 +12514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A865E-8C7A-40D8-97A3-29AA184BEEF7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -12396,7 +12567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1C8E67-ADAC-4C03-80F8-AEA83D6C79AB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -12460,7 +12631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E096A2-3E86-4619-892A-12D4DC11C6D6}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -12585,7 +12756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278CAFD-9A27-473E-9569-89143A17400C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -12692,130 +12863,6 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{6A8FE7F4-56BB-4709-A5EC-015AFA7B9CCE}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{B994D3A7-B729-4C36-8289-E6C2E0A5E75F}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{BD08BEE5-1033-40A0-8CA8-57BD5CD03055}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E1F89C-75EC-4FF7-A814-3512DE623C5C}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>112233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{B25ED489-1A8F-49A2-BBED-44FE1C028290}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{9A8C0559-E6D2-4BCD-8190-F69C6643DB59}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{1088A206-59D7-4DCD-B356-62D235E995D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12979,6 +13026,130 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E1F89C-75EC-4FF7-A814-3512DE623C5C}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{B25ED489-1A8F-49A2-BBED-44FE1C028290}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{9A8C0559-E6D2-4BCD-8190-F69C6643DB59}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{1088A206-59D7-4DCD-B356-62D235E995D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F48527-EE4F-4778-A9C9-C082C4B94006}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -13102,7 +13273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F510903-6981-4F5A-87B1-9C97E81F1C63}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -13166,7 +13337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBEED22-CCF9-4941-932C-C611E4127AB6}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -13365,7 +13536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EE7AF-96C6-4B6B-BF97-DB046463D90C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -13550,7 +13721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D26667-F71C-4482-A33D-D1600F97114C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -13603,7 +13774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1458B880-6C7E-4A69-8B24-49F8E6F11DE0}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -13667,7 +13838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6A2603-7405-4BB9-87F6-65097EE24B4E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -13731,7 +13902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05675AB3-9AB3-485F-8257-8FEE60144F2F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -13855,7 +14026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D48FA7-0AA4-47CC-B1EF-E1C6D9427C3D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -13977,128 +14148,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A95B8D-0265-4782-AA5B-5ECF96D111A5}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>112233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{1109101B-BA22-4650-B486-982A74B8A291}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{9FA2DB66-36A1-4BDA-83FC-45BA3D36B24C}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1671663-5209-46A3-B049-8C2B8BFE52CD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>